--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640" tabRatio="735"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="735" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
   <si>
     <t>view.grid.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,22 +154,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>edge.w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edge.color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>半径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>body.radius</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,14 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>body.color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>body.playerColor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,14 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>边数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>side</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>radius</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,14 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>勾边颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edge.color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x555555</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,14 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,22 +447,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>射击位置偏移</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shootOffset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,50 +518,6 @@
     <t>0x999999</t>
   </si>
   <si>
-    <t>xOffsetRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yOffsetRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xDisplayRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yDisplayRatio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆角半径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x偏移比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y偏移比例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x显示缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y显示缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x86c680</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,14 +550,166 @@
   </si>
   <si>
     <t>每帧放大比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.edge.w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.edge.color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.body.radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.body.color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.body.playerColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示边数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示勾边宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示勾边颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.edge.color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.edge.w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示勾边宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.edge.w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.颜色(己方)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.body.playerColor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血条显示宽度比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血条显示高度比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示圆角半径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示透明度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.alpha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血条显示x偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血条显示y偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.hpbar.scaleXRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.hpbar.scaleYRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.hpbar.xOffsetRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view.hpbar.yOffsetRatio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,7 +744,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +754,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,9 +836,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1063,21 +1138,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="6" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
@@ -1180,19 +1255,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
@@ -1249,169 +1324,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="7" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="7" customFormat="1">
-      <c r="A2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1">
         <v>900</v>
@@ -1426,37 +1508,40 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1">
         <v>300</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>200</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>300</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>200</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>80</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>100</v>
       </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
       <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
         <v>30</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1466,149 +1551,182 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="V1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="7" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1">
-      <c r="A2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1">
+      <c r="V2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1617,54 +1735,69 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1">
         <v>2.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K3" s="1">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1">
         <v>3</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="N3" s="1">
+      <c r="S3" s="1">
         <v>80</v>
       </c>
-      <c r="O3" s="1">
+      <c r="T3" s="1">
         <v>120</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>30</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1673,54 +1806,69 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1">
         <v>2.5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="1">
         <v>40</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="R4" s="1">
         <v>3</v>
       </c>
-      <c r="N4" s="1">
+      <c r="S4" s="1">
         <v>80</v>
       </c>
-      <c r="O4" s="1">
+      <c r="T4" s="1">
         <v>100</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>30</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1729,48 +1877,63 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1">
         <v>2.5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K5" s="1">
         <v>80</v>
       </c>
-      <c r="H5" s="1">
+      <c r="L5" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1">
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="1">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1">
         <v>3</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
         <v>3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="R5" s="1">
         <v>3</v>
       </c>
-      <c r="N5" s="1">
+      <c r="S5" s="1">
         <v>80</v>
       </c>
-      <c r="O5" s="1">
+      <c r="T5" s="1">
         <v>80</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>30</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1786,364 +1949,443 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="V1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="7" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="L2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="7" customFormat="1">
-      <c r="A2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="P2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1">
+      <c r="W2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <v>2.5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K3" s="1">
         <v>200</v>
       </c>
-      <c r="H3" s="1">
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
+      <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="N3" s="1">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>400</v>
       </c>
-      <c r="L3" s="1">
+      <c r="Q3" s="1">
         <v>160</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
         <v>80</v>
       </c>
-      <c r="O3" s="1">
+      <c r="T3" s="1">
         <v>120</v>
       </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
         <v>30</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>10</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="X3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1">
         <v>2.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K4" s="1">
         <v>300</v>
       </c>
-      <c r="H4" s="1">
+      <c r="L4" s="1">
         <v>10</v>
       </c>
-      <c r="I4" s="1">
+      <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
+        <v>26</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>400</v>
       </c>
-      <c r="L4" s="1">
+      <c r="Q4" s="1">
         <v>160</v>
       </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
         <v>80</v>
       </c>
-      <c r="O4" s="1">
+      <c r="T4" s="1">
         <v>120</v>
       </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
         <v>30</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>10</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="X4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1">
         <v>2.5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1">
-        <v>400</v>
+        <v>0.6</v>
       </c>
       <c r="H5" s="1">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="K5" s="1">
         <v>400</v>
       </c>
       <c r="L5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q5" s="1">
         <v>160</v>
       </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
         <v>80</v>
       </c>
-      <c r="O5" s="1">
+      <c r="T5" s="1">
         <v>120</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
         <v>30</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>10</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>98</v>
+      <c r="X5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2159,121 +2401,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1">
+    <row r="1" spans="1:17" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="7" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="7" customFormat="1">
-      <c r="A2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -2281,46 +2540,52 @@
       <c r="C3" s="1">
         <v>35</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45</v>
+      </c>
+      <c r="L3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="1">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>15</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <v>10000</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>16</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -2328,46 +2593,52 @@
       <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="1">
         <v>-8</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <v>15</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <v>8000</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>16</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1">
         <v>12</v>
@@ -2375,46 +2646,52 @@
       <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>6</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <v>15</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <v>8000</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>16</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
@@ -2422,46 +2699,52 @@
       <c r="C6" s="1">
         <v>38</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>48</v>
+      </c>
+      <c r="L6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>15</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>10000</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>16</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1">
         <v>16</v>
@@ -2469,46 +2752,52 @@
       <c r="C7" s="1">
         <v>38</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="1">
         <v>90</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="1">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>6</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>15</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>10000</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>16</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
@@ -2516,46 +2805,52 @@
       <c r="C8" s="1">
         <v>38</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="1">
         <v>180</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
+        <v>48</v>
+      </c>
+      <c r="L8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>15</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>10000</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>16</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
@@ -2563,40 +2858,46 @@
       <c r="C9" s="1">
         <v>38</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" s="1">
         <v>270</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1">
         <v>10</v>
       </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>6</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>15</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>10000</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>16</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2613,110 +2914,84 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="D1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="9" customFormat="1">
-      <c r="A2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -2728,22 +3003,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="H3" s="1">
         <v>0.75</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2759,19 +3022,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2780,38 +3043,38 @@
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1">
         <v>0.4</v>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="735" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="735" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
   <si>
     <t>view.grid.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -702,6 +702,14 @@
   </si>
   <si>
     <t>view.hpbar.yOffsetRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部速度减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity.ivDec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1325,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1343,16 +1351,16 @@
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
     <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1393,28 +1401,31 @@
         <v>40</v>
       </c>
       <c r="N1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="7" customFormat="1">
+    <row r="2" spans="1:21" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -1455,28 +1466,31 @@
         <v>52</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1517,24 +1531,27 @@
         <v>200</v>
       </c>
       <c r="N3" s="1">
+        <v>50</v>
+      </c>
+      <c r="O3" s="1">
         <v>300</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>200</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>80</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>100</v>
       </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
       <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>30</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1552,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1573,16 +1590,16 @@
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -1632,28 +1649,31 @@
         <v>40</v>
       </c>
       <c r="Q1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="7" customFormat="1">
+    <row r="2" spans="1:24" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -1703,28 +1723,31 @@
         <v>52</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="2" customFormat="1">
+    <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
@@ -1774,28 +1797,31 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
         <v>3</v>
       </c>
       <c r="S3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
         <v>80</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>120</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>0.5</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>30</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -1845,28 +1871,31 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>3</v>
       </c>
       <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
         <v>80</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>100</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>0.5</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>30</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
@@ -1916,24 +1945,27 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>3</v>
       </c>
       <c r="S5" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="T5" s="1">
         <v>80</v>
       </c>
       <c r="U5" s="1">
+        <v>80</v>
+      </c>
+      <c r="V5" s="1">
         <v>0.5</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>30</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>10</v>
       </c>
     </row>
@@ -1950,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1971,19 +2003,19 @@
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2033,28 +2065,28 @@
         <v>40</v>
       </c>
       <c r="Q1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="X1" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>79</v>
@@ -2065,8 +2097,11 @@
       <c r="AA1" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="7" customFormat="1">
+      <c r="AB1" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
@@ -2116,40 +2151,43 @@
         <v>52</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1">
+    <row r="3" spans="1:28" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
@@ -2199,34 +2237,37 @@
         <v>400</v>
       </c>
       <c r="Q3" s="1">
+        <v>200</v>
+      </c>
+      <c r="R3" s="1">
         <v>160</v>
       </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
       <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>80</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>120</v>
       </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
       <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
         <v>30</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>10</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -2276,36 +2317,39 @@
         <v>400</v>
       </c>
       <c r="Q4" s="1">
+        <v>200</v>
+      </c>
+      <c r="R4" s="1">
         <v>160</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
       <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
         <v>80</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>120</v>
       </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
       <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
         <v>30</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>10</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -2355,36 +2399,39 @@
         <v>400</v>
       </c>
       <c r="Q5" s="1">
+        <v>200</v>
+      </c>
+      <c r="R5" s="1">
         <v>160</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
       <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
         <v>80</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>120</v>
       </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
       <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
         <v>30</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>10</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2404,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19200" windowHeight="11640" tabRatio="735" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="23940" windowHeight="15100" tabRatio="735" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
   <si>
     <t>view.grid.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自旋初值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,10 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>velocity.rotation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x555555</t>
   </si>
   <si>
@@ -710,14 +702,34 @@
   </si>
   <si>
     <t>velocity.ivDec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity.rv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自旋速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity.rv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity.rv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +760,24 @@
       <color theme="4"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -808,8 +838,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -854,8 +890,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1146,21 +1184,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="2"/>
+    <col min="4" max="6" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
@@ -1263,19 +1301,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
@@ -1332,31 +1370,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1371,7 +1409,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>34</v>
@@ -1392,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>41</v>
@@ -1401,7 +1439,7 @@
         <v>40</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>42</v>
@@ -1416,98 +1454,98 @@
         <v>45</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="S2" s="6" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G3" s="1">
         <v>900</v>
@@ -1558,7 +1596,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1568,35 +1606,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1604,31 +1642,31 @@
         <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="G1" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>37</v>
@@ -1649,7 +1687,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>42</v>
@@ -1664,92 +1702,92 @@
         <v>45</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="O2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="V2" s="6" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1758,13 +1796,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1">
         <v>2.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1">
         <v>0.6</v>
@@ -1823,7 +1861,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1832,13 +1870,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1">
         <v>2.5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1">
         <v>0.6</v>
@@ -1897,7 +1935,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1906,13 +1944,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1">
         <v>2.5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1">
         <v>0.6</v>
@@ -1981,38 +2019,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="9" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -2020,31 +2058,31 @@
         <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>37</v>
@@ -2065,7 +2103,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>42</v>
@@ -2080,131 +2118,131 @@
         <v>45</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>159</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="V2" s="6" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>2.5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G3" s="1">
         <v>0.6</v>
@@ -2261,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -2269,22 +2307,22 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1">
         <v>2.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
         <v>0.6</v>
@@ -2341,32 +2379,32 @@
         <v>10</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1">
         <v>2.5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G5" s="1">
         <v>0.6</v>
@@ -2423,16 +2461,16 @@
         <v>10</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2448,27 +2486,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1">
@@ -2476,110 +2514,110 @@
         <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="L1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="Q1" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="I2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="N2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1">
         <v>15</v>
@@ -2588,13 +2626,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -2603,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -2632,7 +2670,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -2641,13 +2679,13 @@
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1">
         <v>-8</v>
@@ -2656,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -2685,7 +2723,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1">
         <v>12</v>
@@ -2694,13 +2732,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1">
         <v>8</v>
@@ -2709,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2738,7 +2776,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
@@ -2747,13 +2785,13 @@
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -2762,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -2791,7 +2829,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1">
         <v>16</v>
@@ -2800,13 +2838,13 @@
         <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -2815,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J7" s="1">
         <v>90</v>
@@ -2844,7 +2882,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1">
         <v>16</v>
@@ -2853,13 +2891,13 @@
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -2868,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1">
         <v>180</v>
@@ -2897,7 +2935,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
@@ -2906,13 +2944,13 @@
         <v>38</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -2921,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J9" s="1">
         <v>270</v>
@@ -2961,21 +2999,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
@@ -2983,62 +3021,62 @@
         <v>29</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -3050,7 +3088,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1">
         <v>0.75</v>
@@ -3069,19 +3107,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3090,38 +3128,38 @@
         <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1">
         <v>0.4</v>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="23940" windowHeight="15100" tabRatio="735" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="23940" windowHeight="15100" tabRatio="735" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
   <si>
     <t>view.grid.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,6 +722,61 @@
   </si>
   <si>
     <t>velocity.rv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namebar.font</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18px Arail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19px Arail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字显示字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字显示填充色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字显示沟边色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字显示沟边宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x101010</t>
+  </si>
+  <si>
+    <t>0xf0f0f0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namebar.fill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namebar.stroke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namebar.strokeThickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字显示高度偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namebar.yOffset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +837,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -813,6 +868,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -838,7 +899,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,8 +909,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,10 +968,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2020,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2048,12 +2136,16 @@
     <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -2126,20 +2218,35 @@
       <c r="X1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="7" customFormat="1">
+    <row r="2" spans="1:33" s="7" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
@@ -2213,19 +2320,34 @@
         <v>91</v>
       </c>
       <c r="Y2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="2" customFormat="1">
+    <row r="3" spans="1:33" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2299,13 +2421,28 @@
         <v>10</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -2379,15 +2516,30 @@
         <v>10</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2461,15 +2613,30 @@
         <v>10</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3110,7 +3277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="23940" windowHeight="15100" tabRatio="735" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="23940" windowHeight="15105" tabRatio="735" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="configWeapons" sheetId="6" r:id="rId6"/>
     <sheet name="configHpbar" sheetId="7" r:id="rId7"/>
     <sheet name="configDieAnimation" sheetId="8" r:id="rId8"/>
+    <sheet name="configPropAdd" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="210">
   <si>
     <t>view.grid.size</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,14 +778,86 @@
   </si>
   <si>
     <t>namebar.yOffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_HEALTH_REGEN</t>
+  </si>
+  <si>
+    <t>PT_MAX_HEALTH</t>
+  </si>
+  <si>
+    <t>PT_BODY_DAMAGE</t>
+  </si>
+  <si>
+    <t>PT_BULLET_SPEED</t>
+  </si>
+  <si>
+    <t>PT_BULLET_PENETRATION</t>
+  </si>
+  <si>
+    <t>PT_BULLET_DAMAGE</t>
+  </si>
+  <si>
+    <t>PT_RELOAD</t>
+  </si>
+  <si>
+    <t>PT_MOVEMENT_SPEED</t>
+  </si>
+  <si>
+    <t>加点类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级加成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,6 +906,31 @@
       <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -928,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,17 +1069,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1272,21 +1382,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="6" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
@@ -1389,19 +1499,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1">
@@ -1458,31 +1568,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1694,35 +1804,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -2107,42 +2217,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Y1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="9" max="10" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.625" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -2653,27 +2763,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1">
@@ -3166,21 +3276,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1">
@@ -3274,19 +3384,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3350,4 +3460,228 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25">
+      <c r="A1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" tabRatio="735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" tabRatio="735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="configDieAnimation" sheetId="8" r:id="rId8"/>
     <sheet name="configPropAdd" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="187">
   <si>
     <t>地图宽</t>
   </si>
@@ -93,9 +93,6 @@
     <t>地图逻辑处理分格大小</t>
   </si>
   <si>
-    <t>碰撞检测保护时长(毫秒)</t>
-  </si>
-  <si>
     <t>中立物最大数量</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>gridSize</t>
   </si>
   <si>
-    <t>unitCollideCheckMS</t>
-  </si>
-  <si>
     <t>maxObstaclesCount</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>view.body.playerColor</t>
   </si>
   <si>
-    <t>duration</t>
-  </si>
-  <si>
     <t>hp</t>
   </si>
   <si>
@@ -462,9 +453,6 @@
     <t>bullet</t>
   </si>
   <si>
-    <t>angle</t>
-  </si>
-  <si>
     <t>shootOffset</t>
   </si>
   <si>
@@ -583,19 +571,29 @@
   </si>
   <si>
     <t>PT_MOVEMENT_SPEED</t>
+  </si>
+  <si>
+    <t>durationFrame</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>degree</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞检测保护时长(帧)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitCollideCheckFrame</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,151 +633,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,210 +654,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1020,251 +700,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,57 +759,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1660,25 +1051,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="7.12962962962963" style="7" customWidth="1"/>
+    <col min="1" max="2" width="7.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
-    <col min="4" max="6" width="21.3796296296296" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.8796296296296" style="7" customWidth="1"/>
-    <col min="8" max="9" width="21.3796296296296" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.87962962962963" style="7"/>
+    <col min="4" max="6" width="21.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="21.375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:9">
+    <row r="1" spans="1:9" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1766,30 +1156,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="23.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="19.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
@@ -1797,27 +1186,27 @@
         <v>22</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4" s="16" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" s="16" customFormat="1" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:4">
+    </row>
+    <row r="3" spans="1:4" s="7" customFormat="1">
       <c r="A3" s="4">
         <v>30</v>
       </c>
@@ -1825,198 +1214,198 @@
         <v>128</v>
       </c>
       <c r="C3" s="4">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S$1:S$1048576"/>
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="18.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="17.6296296296296" customWidth="1"/>
-    <col min="6" max="6" width="24.3796296296296" customWidth="1"/>
-    <col min="8" max="8" width="7.12962962962963" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="17.1296296296296" customWidth="1"/>
-    <col min="13" max="14" width="16.1296296296296" customWidth="1"/>
-    <col min="15" max="16" width="17.1296296296296" customWidth="1"/>
-    <col min="17" max="17" width="16.1296296296296" customWidth="1"/>
-    <col min="18" max="18" width="17.1296296296296" customWidth="1"/>
-    <col min="19" max="19" width="11.6296296296296" customWidth="1"/>
-    <col min="20" max="20" width="22.1296296296296" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="14" width="16.125" customWidth="1"/>
+    <col min="15" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="20" max="20" width="22.125" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:21">
-      <c r="A2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:21" s="7" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:21">
-      <c r="A3" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4">
-        <v>900</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -2062,195 +1451,194 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="11.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="13.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="11.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.6296296296296" customWidth="1"/>
-    <col min="7" max="8" width="24.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="8" width="24.375" customWidth="1"/>
     <col min="9" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="7.12962962962963" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
     <col min="13" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="17.1296296296296" customWidth="1"/>
-    <col min="16" max="17" width="16.1296296296296" customWidth="1"/>
-    <col min="18" max="19" width="17.1296296296296" customWidth="1"/>
-    <col min="20" max="20" width="16.1296296296296" customWidth="1"/>
-    <col min="21" max="21" width="16.3796296296296" customWidth="1"/>
-    <col min="22" max="22" width="11.6296296296296" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="16" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="18.1296296296296" customWidth="1"/>
+    <col min="24" max="24" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="11" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:24">
-      <c r="A2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="K2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="7" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:24">
-      <c r="A3" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -2259,13 +1647,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E3" s="4">
         <v>2.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" s="4">
         <v>0.6</v>
@@ -2324,7 +1712,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -2333,13 +1721,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4">
         <v>2.5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G4" s="4">
         <v>0.6</v>
@@ -2398,7 +1786,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -2407,13 +1795,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4">
         <v>2.5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G5" s="4">
         <v>0.6</v>
@@ -2471,278 +1859,277 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="I1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="18.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="17.6296296296296" customWidth="1"/>
-    <col min="6" max="7" width="24.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="7" width="24.375" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="10" width="26.6296296296296" customWidth="1"/>
-    <col min="11" max="11" width="10.3796296296296" customWidth="1"/>
+    <col min="9" max="10" width="26.625" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="17.1296296296296" customWidth="1"/>
-    <col min="17" max="18" width="16.1296296296296" customWidth="1"/>
-    <col min="19" max="20" width="17.1296296296296" customWidth="1"/>
-    <col min="21" max="21" width="16.1296296296296" customWidth="1"/>
-    <col min="22" max="22" width="17.1296296296296" customWidth="1"/>
-    <col min="23" max="23" width="11.6296296296296" customWidth="1"/>
-    <col min="24" max="24" width="22.1296296296296" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="16.125" customWidth="1"/>
+    <col min="22" max="22" width="17.125" customWidth="1"/>
+    <col min="23" max="23" width="11.625" customWidth="1"/>
+    <col min="24" max="24" width="22.125" customWidth="1"/>
     <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="12.6296296296296" customWidth="1"/>
+    <col min="26" max="26" width="12.625" customWidth="1"/>
     <col min="27" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="22.6296296296296" customWidth="1"/>
-    <col min="30" max="30" width="16.3796296296296" customWidth="1"/>
-    <col min="31" max="31" width="11.1296296296296" customWidth="1"/>
-    <col min="32" max="32" width="11.6296296296296" customWidth="1"/>
-    <col min="33" max="34" width="11.1296296296296" customWidth="1"/>
+    <col min="29" max="29" width="22.625" customWidth="1"/>
+    <col min="30" max="30" width="16.375" customWidth="1"/>
+    <col min="31" max="31" width="11.125" customWidth="1"/>
+    <col min="32" max="32" width="11.625" customWidth="1"/>
+    <col min="33" max="34" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="P1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="AA1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="14" t="s">
+      <c r="AB1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="12" t="s">
+      <c r="AC1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="11" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC1" s="15" t="s">
+      <c r="C2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="P2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AA2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AF1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:34">
-      <c r="A2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="P2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AF2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="AF2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:34" s="7" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:34">
-      <c r="A3" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="B3" s="4">
         <v>2.5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4">
         <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="4">
         <v>0.6</v>
@@ -2802,13 +2189,13 @@
         <v>10</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AC3" s="4">
         <v>2</v>
@@ -2817,7 +2204,7 @@
         <v>15</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -2825,22 +2212,22 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4">
         <v>2.5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4">
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4" s="4">
         <v>0.6</v>
@@ -2900,13 +2287,13 @@
         <v>10</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AC4" s="4">
         <v>2</v>
@@ -2915,32 +2302,32 @@
         <v>18</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4">
         <v>2.5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="4">
         <v>0.6</v>
@@ -3000,13 +2387,13 @@
         <v>10</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AC5" s="4">
         <v>2</v>
@@ -3015,159 +2402,158 @@
         <v>18</v>
       </c>
       <c r="AE5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AF5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6296296296296" customWidth="1"/>
-    <col min="4" max="4" width="17.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="13.1296296296296" customWidth="1"/>
-    <col min="6" max="6" width="12.1296296296296" customWidth="1"/>
-    <col min="7" max="7" width="5.12962962962963" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6296296296296" customWidth="1"/>
-    <col min="13" max="13" width="17.1296296296296" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.1296296296296" customWidth="1"/>
-    <col min="17" max="17" width="17.1296296296296" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:17">
+    <row r="1" spans="1:17" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:17" s="11" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="D2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" s="11" customFormat="1" spans="1:17">
-      <c r="A2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="J2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
@@ -3176,13 +2562,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -3191,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -3220,7 +2606,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="4">
         <v>12</v>
@@ -3229,13 +2615,13 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G4" s="4">
         <v>-8</v>
@@ -3244,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -3273,7 +2659,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4">
         <v>12</v>
@@ -3282,13 +2668,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" s="4">
         <v>8</v>
@@ -3297,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -3326,7 +2712,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -3335,13 +2721,13 @@
         <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3350,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -3379,7 +2765,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4">
         <v>16</v>
@@ -3388,13 +2774,13 @@
         <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -3403,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J7" s="4">
         <v>90</v>
@@ -3432,7 +2818,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B8" s="4">
         <v>16</v>
@@ -3441,13 +2827,13 @@
         <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -3456,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4">
         <v>180</v>
@@ -3485,7 +2871,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="4">
         <v>16</v>
@@ -3494,13 +2880,13 @@
         <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3509,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J9" s="4">
         <v>270</v>
@@ -3537,92 +2923,91 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.1296296296296" customWidth="1"/>
-    <col min="7" max="8" width="12.1296296296296" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" s="6" customFormat="1" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1">
       <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" s="4">
         <v>100</v>
@@ -3634,74 +3019,73 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H3" s="4">
         <v>0.75</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E3"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -3717,72 +3101,71 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1296296296296" customWidth="1"/>
-    <col min="6" max="6" width="10.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -3802,7 +3185,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -3822,7 +3205,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -3842,19 +3225,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D6" s="4">
         <v>0.21</v>
       </c>
       <c r="E6" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F6" s="4">
         <v>0.35</v>
@@ -3862,7 +3245,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
@@ -3882,7 +3265,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B8" s="4">
         <v>0.2</v>
@@ -3902,7 +3285,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B9" s="4">
         <v>0.15</v>
@@ -3922,7 +3305,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B10" s="4">
         <v>0.05</v>
@@ -3941,8 +3324,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" tabRatio="735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" tabRatio="735" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -1166,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2180,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="W3" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X3" s="4">
         <v>30</v>
@@ -2278,7 +2278,7 @@
         <v>120</v>
       </c>
       <c r="W4" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X4" s="4">
         <v>30</v>
@@ -2378,7 +2378,7 @@
         <v>120</v>
       </c>
       <c r="W5" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X5" s="4">
         <v>30</v>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2180,7 +2180,7 @@
         <v>120</v>
       </c>
       <c r="W3" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
         <v>30</v>
@@ -2278,7 +2278,7 @@
         <v>120</v>
       </c>
       <c r="W4" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4">
         <v>30</v>
@@ -2378,7 +2378,7 @@
         <v>120</v>
       </c>
       <c r="W5" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4">
         <v>30</v>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" tabRatio="735" activeTab="4"/>
+    <workbookView xWindow="3160" yWindow="520" windowWidth="23440" windowHeight="13220" tabRatio="735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,17 @@
     <sheet name="configDieAnimation" sheetId="8" r:id="rId8"/>
     <sheet name="configPropAdd" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="191">
   <si>
     <t>地图宽</t>
   </si>
@@ -586,14 +591,30 @@
   </si>
   <si>
     <t>unitCollideCheckFrame</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>syncRotationFrame</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>syncForceFrame</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步移动间隔(帧)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步旋转间隔(帧)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,10 +781,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -1051,21 +1072,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="7.125" style="7" customWidth="1"/>
+    <col min="1" max="2" width="7.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
-    <col min="4" max="6" width="21.375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="7" customWidth="1"/>
-    <col min="8" max="9" width="21.375" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="7"/>
+    <col min="4" max="6" width="21.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="7" customWidth="1"/>
+    <col min="8" max="9" width="21.33203125" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
@@ -1159,99 +1180,129 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="16" customFormat="1">
+    <row r="2" spans="1:6" s="16" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="7" customFormat="1">
+    <row r="3" spans="1:6" s="7" customFormat="1">
       <c r="A3" s="4">
         <v>30</v>
       </c>
       <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
         <v>128</v>
       </c>
-      <c r="C3" s="4">
+      <c r="E3" s="4">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="14" width="16.125" customWidth="1"/>
-    <col min="15" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="17.125" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
-    <col min="20" max="20" width="22.125" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
+    <col min="13" max="14" width="16.1640625" customWidth="1"/>
+    <col min="15" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.1640625" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1454,38 +1505,43 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="8" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="8" width="24.33203125" customWidth="1"/>
     <col min="9" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
     <col min="13" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="16" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="19" width="17.125" customWidth="1"/>
-    <col min="20" max="20" width="16.125" customWidth="1"/>
-    <col min="21" max="21" width="16.375" customWidth="1"/>
-    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="15" max="15" width="17.1640625" customWidth="1"/>
+    <col min="16" max="17" width="16.1640625" customWidth="1"/>
+    <col min="18" max="19" width="17.1640625" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" customWidth="1"/>
+    <col min="21" max="21" width="16.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="18.125" customWidth="1"/>
+    <col min="24" max="24" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1861,47 +1917,52 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="7" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="10" width="26.625" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="9" max="10" width="26.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="17" max="18" width="16.125" customWidth="1"/>
-    <col min="19" max="20" width="17.125" customWidth="1"/>
-    <col min="21" max="21" width="16.125" customWidth="1"/>
-    <col min="22" max="22" width="17.125" customWidth="1"/>
-    <col min="23" max="23" width="11.625" customWidth="1"/>
-    <col min="24" max="24" width="22.125" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="18" width="16.1640625" customWidth="1"/>
+    <col min="19" max="20" width="17.1640625" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" customWidth="1"/>
+    <col min="22" max="22" width="17.1640625" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="22.1640625" customWidth="1"/>
     <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="12.625" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" customWidth="1"/>
     <col min="27" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="22.625" customWidth="1"/>
-    <col min="30" max="30" width="16.375" customWidth="1"/>
-    <col min="31" max="31" width="11.125" customWidth="1"/>
-    <col min="32" max="32" width="11.625" customWidth="1"/>
-    <col min="33" max="34" width="11.125" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1"/>
+    <col min="31" max="31" width="11.1640625" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" customWidth="1"/>
+    <col min="33" max="34" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -2418,31 +2479,36 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.1640625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.125" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1">
@@ -2926,25 +2992,30 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="8" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
@@ -3029,23 +3100,28 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3103,27 +3179,32 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="3" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -3143,7 +3224,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="2" t="s">
         <v>169</v>
       </c>
@@ -3327,5 +3408,10 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="520" windowWidth="23440" windowHeight="13220" tabRatio="735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="735" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="configHpbar" sheetId="7" r:id="rId7"/>
     <sheet name="configDieAnimation" sheetId="8" r:id="rId8"/>
     <sheet name="configPropAdd" sheetId="9" r:id="rId9"/>
+    <sheet name="configLevelUp" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="199">
   <si>
     <t>地图宽</t>
   </si>
@@ -579,46 +580,86 @@
   </si>
   <si>
     <t>durationFrame</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>degree</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>碰撞检测保护时长(帧)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>unitCollideCheckFrame</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>syncRotationFrame</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>syncForceFrame</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>同步移动间隔(帧)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>同步旋转间隔(帧)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀经验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>killExp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillPoint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -655,6 +696,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,19 +779,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -746,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -755,19 +818,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -779,8 +842,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1177,9 +1245,385 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>130</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>210</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>350</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>400</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>450</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>570</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>640</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>710</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>780</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>850</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>930</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1010</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1090</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1170</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1250</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1350</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1450</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1550</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1650</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1800</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1192,7 +1636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1267,7 +1711,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1502,7 +1946,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <extLst>
@@ -1515,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1534,17 +1978,18 @@
     <col min="11" max="11" width="7.1640625" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
     <col min="13" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="17.1640625" customWidth="1"/>
-    <col min="16" max="17" width="16.1640625" customWidth="1"/>
-    <col min="18" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" customWidth="1"/>
-    <col min="23" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="18" width="16.1640625" customWidth="1"/>
+    <col min="19" max="20" width="17.1640625" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="24" width="19" customWidth="1"/>
+    <col min="25" max="25" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1587,38 +2032,41 @@
       <c r="N1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="11" customFormat="1">
+    <row r="2" spans="1:25" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -1662,37 +2110,40 @@
         <v>57</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="7" customFormat="1">
+    <row r="3" spans="1:25" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -1736,37 +2187,40 @@
         <v>20</v>
       </c>
       <c r="O3" s="4">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4">
         <v>3</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
         <v>3</v>
       </c>
       <c r="T3" s="4">
+        <v>3</v>
+      </c>
+      <c r="U3" s="4">
         <v>80</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <v>120</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>0.5</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <v>30</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Y3" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
@@ -1810,37 +2264,40 @@
         <v>20</v>
       </c>
       <c r="O4" s="4">
+        <v>20</v>
+      </c>
+      <c r="P4" s="4">
         <v>3</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4">
         <v>3</v>
       </c>
       <c r="T4" s="4">
+        <v>3</v>
+      </c>
+      <c r="U4" s="4">
         <v>80</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>100</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>0.5</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="4">
         <v>30</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -1884,38 +2341,41 @@
         <v>24</v>
       </c>
       <c r="O5" s="4">
+        <v>40</v>
+      </c>
+      <c r="P5" s="4">
         <v>3</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4">
         <v>3</v>
       </c>
       <c r="T5" s="4">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="U5" s="4">
         <v>80</v>
       </c>
       <c r="V5" s="4">
+        <v>80</v>
+      </c>
+      <c r="W5" s="4">
         <v>0.5</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>30</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1929,7 +2389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -2476,7 +2936,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <extLst>
@@ -2989,7 +3449,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -3097,7 +3557,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -3177,7 +3637,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3192,7 +3652,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3405,7 +3865,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="735" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="735" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="202">
   <si>
     <t>地图宽</t>
   </si>
@@ -640,14 +640,26 @@
   </si>
   <si>
     <t>skillPoint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>density</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹抗性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletResist</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,9 +859,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1140,21 +1152,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="7.1640625" style="7" customWidth="1"/>
+    <col min="1" max="2" width="7.125" style="7" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" customWidth="1"/>
-    <col min="4" max="6" width="21.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="7" customWidth="1"/>
-    <col min="8" max="9" width="21.33203125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="7"/>
+    <col min="4" max="6" width="21.375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="21.375" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
@@ -1257,19 +1269,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="17" t="s">
         <v>193</v>
       </c>
@@ -1280,7 +1292,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>196</v>
       </c>
@@ -1633,21 +1645,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1">
@@ -1722,35 +1734,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" customWidth="1"/>
-    <col min="13" max="14" width="16.1640625" customWidth="1"/>
-    <col min="15" max="16" width="17.1640625" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
-    <col min="20" max="20" width="22.1640625" customWidth="1"/>
-    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="22.125" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -1784,38 +1797,41 @@
       <c r="K1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="11" customFormat="1">
+    <row r="2" spans="1:22" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -1844,43 +1860,46 @@
         <v>55</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="7" customFormat="1">
+    <row r="3" spans="1:22" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
@@ -1903,10 +1922,10 @@
         <v>25</v>
       </c>
       <c r="H3" s="4">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="I3" s="4">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="J3" s="4">
         <v>1</v>
@@ -1915,33 +1934,36 @@
         <v>8</v>
       </c>
       <c r="L3" s="4">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="M3" s="4">
         <v>200</v>
       </c>
       <c r="N3" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="P3" s="4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="Q3" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
         <v>100</v>
       </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
       <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
         <v>30</v>
       </c>
-      <c r="U3" s="4">
+      <c r="V3" s="4">
         <v>10</v>
       </c>
     </row>
@@ -1958,38 +1980,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="8" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="8" width="24.375" customWidth="1"/>
     <col min="9" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="7.125" customWidth="1"/>
     <col min="12" max="12" width="7.5" customWidth="1"/>
     <col min="13" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" customWidth="1"/>
-    <col min="17" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="20" width="17.1640625" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="22" width="16.33203125" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="19" customWidth="1"/>
-    <col min="25" max="25" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="19" width="16.125" customWidth="1"/>
+    <col min="20" max="21" width="17.125" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="23" width="16.375" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="19" customWidth="1"/>
+    <col min="26" max="26" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -2035,38 +2058,41 @@
       <c r="O1" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="11" customFormat="1">
+    <row r="2" spans="1:26" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -2113,37 +2139,40 @@
         <v>192</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="7" customFormat="1">
+    <row r="3" spans="1:26" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>87</v>
       </c>
@@ -2175,10 +2204,10 @@
         <v>1.4</v>
       </c>
       <c r="K3" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L3" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M3" s="4">
         <v>1</v>
@@ -2190,37 +2219,40 @@
         <v>10</v>
       </c>
       <c r="P3" s="4">
+        <v>300</v>
+      </c>
+      <c r="Q3" s="4">
         <v>3</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
       <c r="R3" s="4">
         <v>0</v>
       </c>
       <c r="S3" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
         <v>3</v>
       </c>
       <c r="U3" s="4">
+        <v>3</v>
+      </c>
+      <c r="V3" s="4">
         <v>80</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>120</v>
       </c>
-      <c r="W3" s="4">
+      <c r="X3" s="4">
         <v>0.5</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Y3" s="4">
         <v>30</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Z3" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
         <v>89</v>
       </c>
@@ -2252,10 +2284,10 @@
         <v>1.4</v>
       </c>
       <c r="K4" s="4">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="L4" s="4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M4" s="4">
         <v>1</v>
@@ -2267,37 +2299,40 @@
         <v>20</v>
       </c>
       <c r="P4" s="4">
+        <v>600</v>
+      </c>
+      <c r="Q4" s="4">
         <v>3</v>
       </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
       <c r="R4" s="4">
         <v>0</v>
       </c>
       <c r="S4" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4">
         <v>3</v>
       </c>
       <c r="U4" s="4">
+        <v>3</v>
+      </c>
+      <c r="V4" s="4">
         <v>80</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>100</v>
       </c>
-      <c r="W4" s="4">
+      <c r="X4" s="4">
         <v>0.5</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="4">
         <v>30</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Z4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
         <v>91</v>
       </c>
@@ -2329,10 +2364,10 @@
         <v>1.4</v>
       </c>
       <c r="K5" s="4">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="4">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -2344,33 +2379,36 @@
         <v>40</v>
       </c>
       <c r="P5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="Q5" s="4">
         <v>3</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
       <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="S5" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
         <v>3</v>
       </c>
       <c r="U5" s="4">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="V5" s="4">
         <v>80</v>
       </c>
       <c r="W5" s="4">
+        <v>80</v>
+      </c>
+      <c r="X5" s="4">
         <v>0.5</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <v>30</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <v>10</v>
       </c>
     </row>
@@ -2386,46 +2424,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="7" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="7" width="24.375" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="10" width="26.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="9" max="10" width="26.625" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="17.1640625" customWidth="1"/>
-    <col min="17" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="20" width="17.1640625" customWidth="1"/>
-    <col min="21" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="22" width="17.1640625" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" customWidth="1"/>
-    <col min="24" max="24" width="22.1640625" customWidth="1"/>
-    <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="28" width="14.5" customWidth="1"/>
-    <col min="29" max="29" width="22.6640625" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" customWidth="1"/>
-    <col min="31" max="31" width="11.1640625" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" customWidth="1"/>
-    <col min="33" max="34" width="11.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="19" width="16.125" customWidth="1"/>
+    <col min="20" max="21" width="17.125" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="22.125" customWidth="1"/>
+    <col min="26" max="26" width="21" customWidth="1"/>
+    <col min="27" max="27" width="12.625" customWidth="1"/>
+    <col min="28" max="29" width="14.5" customWidth="1"/>
+    <col min="30" max="30" width="22.625" customWidth="1"/>
+    <col min="31" max="31" width="16.375" customWidth="1"/>
+    <col min="32" max="32" width="11.125" customWidth="1"/>
+    <col min="33" max="33" width="11.625" customWidth="1"/>
+    <col min="34" max="35" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -2471,53 +2510,53 @@
       <c r="O1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="AF1" s="8" t="s">
         <v>102</v>
@@ -2528,8 +2567,11 @@
       <c r="AH1" s="8" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" s="11" customFormat="1">
+      <c r="AI1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -2576,64 +2618,67 @@
         <v>103</v>
       </c>
       <c r="P2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AF2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="7" customFormat="1">
+    <row r="3" spans="1:35" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>113</v>
       </c>
@@ -2665,10 +2710,10 @@
         <v>1.4</v>
       </c>
       <c r="K3" s="4">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="L3" s="4">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="M3" s="4">
         <v>1</v>
@@ -2677,61 +2722,64 @@
         <v>24</v>
       </c>
       <c r="O3" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P3" s="4">
+        <v>99999</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>400</v>
+      </c>
+      <c r="S3" s="4">
+        <v>200</v>
+      </c>
+      <c r="T3" s="4">
+        <v>160</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>80</v>
+      </c>
+      <c r="W3" s="4">
+        <v>120</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD3" s="4">
         <v>2</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>400</v>
-      </c>
-      <c r="R3" s="4">
-        <v>200</v>
-      </c>
-      <c r="S3" s="4">
-        <v>160</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>80</v>
-      </c>
-      <c r="V3" s="4">
-        <v>120</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="4">
+      <c r="AE3" s="4">
         <v>15</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AI3" s="4"/>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="4" t="s">
         <v>117</v>
       </c>
@@ -2763,10 +2811,10 @@
         <v>1.4</v>
       </c>
       <c r="K4" s="4">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="L4" s="4">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="M4" s="4">
         <v>1</v>
@@ -2775,63 +2823,66 @@
         <v>26</v>
       </c>
       <c r="O4" s="4">
-        <v>3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P4" s="4">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>400</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>200</v>
       </c>
-      <c r="S4" s="4">
+      <c r="T4" s="4">
         <v>160</v>
       </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
       <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
         <v>80</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>120</v>
       </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
       <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
         <v>30</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Z4" s="4">
         <v>10</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AD4" s="4">
         <v>2</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE4" s="4">
         <v>18</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AG4" s="4"/>
       <c r="AH4" s="4"/>
-    </row>
-    <row r="5" spans="1:34">
+      <c r="AI4" s="4"/>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="4" t="s">
         <v>89</v>
       </c>
@@ -2863,10 +2914,10 @@
         <v>1.4</v>
       </c>
       <c r="K5" s="4">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="L5" s="4">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="M5" s="4">
         <v>1</v>
@@ -2875,63 +2926,66 @@
         <v>26</v>
       </c>
       <c r="O5" s="4">
-        <v>4</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="P5" s="4">
-        <v>0</v>
+        <v>99999</v>
       </c>
       <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
         <v>400</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>200</v>
       </c>
-      <c r="S5" s="4">
+      <c r="T5" s="4">
         <v>160</v>
       </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
       <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
         <v>80</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>120</v>
       </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
       <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
         <v>30</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Z5" s="4">
         <v>10</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <v>2</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <v>18</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AH5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2948,27 +3002,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1">
@@ -3461,21 +3515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1">
@@ -3569,19 +3623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3648,23 +3702,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="3" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -3684,7 +3738,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>169</v>
       </c>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="735" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="735" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,9 @@
     <sheet name="configObstacles" sheetId="4" r:id="rId4"/>
     <sheet name="configTanks" sheetId="5" r:id="rId5"/>
     <sheet name="configWeapons" sheetId="6" r:id="rId6"/>
-    <sheet name="configHpbar" sheetId="7" r:id="rId7"/>
-    <sheet name="configDieAnimation" sheetId="8" r:id="rId8"/>
-    <sheet name="configPropAdd" sheetId="9" r:id="rId9"/>
-    <sheet name="configLevelUp" sheetId="10" r:id="rId10"/>
+    <sheet name="configDieAnimation" sheetId="8" r:id="rId7"/>
+    <sheet name="configPropAdd" sheetId="9" r:id="rId8"/>
+    <sheet name="configLevelUp" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="190">
   <si>
     <t>地图宽</t>
   </si>
@@ -258,18 +257,6 @@
     <t>显示勾边颜色</t>
   </si>
   <si>
-    <t>血条显示宽度比例</t>
-  </si>
-  <si>
-    <t>血条显示高度比例</t>
-  </si>
-  <si>
-    <t>血条显示x偏移</t>
-  </si>
-  <si>
-    <t>血条显示y偏移</t>
-  </si>
-  <si>
     <t>view.side</t>
   </si>
   <si>
@@ -279,18 +266,6 @@
     <t>view.color</t>
   </si>
   <si>
-    <t>view.hpbar.scaleXRatio</t>
-  </si>
-  <si>
-    <t>view.hpbar.scaleYRatio</t>
-  </si>
-  <si>
-    <t>view.hpbar.xOffsetRatio</t>
-  </si>
-  <si>
-    <t>view.hpbar.yOffsetRatio</t>
-  </si>
-  <si>
     <t>triangle</t>
   </si>
   <si>
@@ -481,18 +456,6 @@
   </si>
   <si>
     <t>0x999999</t>
-  </si>
-  <si>
-    <t>显示圆角半径</t>
-  </si>
-  <si>
-    <t>显示透明度</t>
-  </si>
-  <si>
-    <t>view.alpha</t>
-  </si>
-  <si>
-    <t>0x86c680</t>
   </si>
   <si>
     <t>动画开始透明度</t>
@@ -1268,382 +1231,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25">
-      <c r="A2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>70</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>130</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>170</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>210</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>250</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>300</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>350</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>400</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>450</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>500</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>570</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>640</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>710</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>780</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>850</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>930</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1010</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>1090</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1170</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1250</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1350</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1450</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1550</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1650</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1800</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
@@ -1667,16 +1254,16 @@
         <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>23</v>
@@ -1687,16 +1274,16 @@
         <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>26</v>
@@ -1737,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -1798,7 +1385,7 @@
         <v>37</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>38</v>
@@ -1851,7 +1438,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>54</v>
@@ -1860,13 +1447,13 @@
         <v>55</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>58</v>
@@ -1981,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1995,24 +1582,22 @@
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="17.625" customWidth="1"/>
-    <col min="7" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="7.125" customWidth="1"/>
-    <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
-    <col min="18" max="19" width="16.125" customWidth="1"/>
-    <col min="20" max="21" width="17.125" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="23" width="16.375" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="19" customWidth="1"/>
+    <col min="22" max="22" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:22">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -2031,79 +1616,67 @@
       <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>79</v>
+      <c r="G1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>200</v>
+        <v>188</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="11" customFormat="1">
+    <row r="2" spans="1:22" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>49</v>
@@ -2112,69 +1685,57 @@
         <v>50</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>201</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="7" customFormat="1">
+    <row r="3" spans="1:22" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -2183,7 +1744,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4">
         <v>2.5</v>
@@ -2192,69 +1753,57 @@
         <v>69</v>
       </c>
       <c r="G3" s="4">
-        <v>0.6</v>
+        <v>100</v>
       </c>
       <c r="H3" s="4">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4">
+        <v>300</v>
+      </c>
+      <c r="M3" s="4">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="K3" s="4">
-        <v>100</v>
-      </c>
-      <c r="L3" s="4">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
-        <v>20</v>
-      </c>
       <c r="O3" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="4">
         <v>3</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T3" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="U3" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
-        <v>80</v>
-      </c>
-      <c r="W3" s="4">
-        <v>120</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:22">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -2263,7 +1812,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4">
         <v>2.5</v>
@@ -2272,69 +1821,57 @@
         <v>69</v>
       </c>
       <c r="G4" s="4">
-        <v>0.6</v>
+        <v>400</v>
       </c>
       <c r="H4" s="4">
-        <v>0.6</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4">
+        <v>20</v>
+      </c>
+      <c r="L4" s="4">
+        <v>600</v>
+      </c>
+      <c r="M4" s="4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="K4" s="4">
-        <v>400</v>
-      </c>
-      <c r="L4" s="4">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>20</v>
-      </c>
       <c r="O4" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="4">
         <v>3</v>
       </c>
       <c r="R4" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S4" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T4" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="U4" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="V4" s="4">
-        <v>80</v>
-      </c>
-      <c r="W4" s="4">
-        <v>100</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:22">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -2343,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E5" s="4">
         <v>2.5</v>
@@ -2352,63 +1889,51 @@
         <v>69</v>
       </c>
       <c r="G5" s="4">
-        <v>0.6</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="4">
-        <v>0.6</v>
+        <v>180</v>
       </c>
       <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4">
+        <v>40</v>
+      </c>
+      <c r="L5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="4">
-        <v>180</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>24</v>
-      </c>
       <c r="O5" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="4">
         <v>3</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S5" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="T5" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="V5" s="4">
-        <v>80</v>
-      </c>
-      <c r="W5" s="4">
-        <v>80</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="4">
         <v>10</v>
       </c>
     </row>
@@ -2425,10 +1950,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2438,38 +1963,36 @@
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="7" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="10" width="26.625" customWidth="1"/>
-    <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
-    <col min="18" max="19" width="16.125" customWidth="1"/>
-    <col min="20" max="21" width="17.125" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="22.125" customWidth="1"/>
-    <col min="26" max="26" width="21" customWidth="1"/>
-    <col min="27" max="27" width="12.625" customWidth="1"/>
-    <col min="28" max="29" width="14.5" customWidth="1"/>
-    <col min="30" max="30" width="22.625" customWidth="1"/>
-    <col min="31" max="31" width="16.375" customWidth="1"/>
-    <col min="32" max="32" width="11.125" customWidth="1"/>
-    <col min="33" max="33" width="11.625" customWidth="1"/>
-    <col min="34" max="35" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="22.125" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="12.625" customWidth="1"/>
+    <col min="24" max="25" width="14.5" customWidth="1"/>
+    <col min="26" max="26" width="22.625" customWidth="1"/>
+    <col min="27" max="27" width="16.375" customWidth="1"/>
+    <col min="28" max="28" width="11.125" customWidth="1"/>
+    <col min="29" max="29" width="11.625" customWidth="1"/>
+    <col min="30" max="31" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:31">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>29</v>
@@ -2478,100 +2001,88 @@
         <v>30</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="11" customFormat="1">
+      <c r="AC1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -2591,96 +2102,84 @@
         <v>53</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="P2" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:31" s="7" customFormat="1">
+      <c r="A3" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" s="7" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="B3" s="4">
         <v>2.5</v>
@@ -2698,90 +2197,78 @@
         <v>71</v>
       </c>
       <c r="G3" s="4">
-        <v>0.6</v>
+        <v>1800</v>
       </c>
       <c r="H3" s="4">
-        <v>0.6</v>
+        <v>450</v>
       </c>
       <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>99999</v>
+      </c>
+      <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1800</v>
-      </c>
-      <c r="L3" s="4">
-        <v>450</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
       <c r="N3" s="4">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="O3" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>200</v>
       </c>
       <c r="P3" s="4">
-        <v>99999</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
       <c r="R3" s="4">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="S3" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="T3" s="4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
-        <v>80</v>
-      </c>
-      <c r="W3" s="4">
-        <v>120</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="Z3" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>114</v>
+        <v>2</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>15</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-    </row>
-    <row r="4" spans="1:35">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B4" s="4">
         <v>2.5</v>
@@ -2799,92 +2286,80 @@
         <v>71</v>
       </c>
       <c r="G4" s="4">
-        <v>0.6</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="4">
-        <v>0.6</v>
+        <v>500</v>
       </c>
       <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>99999</v>
+      </c>
+      <c r="M4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="4">
-        <v>500</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
       <c r="N4" s="4">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="O4" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>200</v>
       </c>
       <c r="P4" s="4">
-        <v>99999</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
       <c r="R4" s="4">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="S4" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="T4" s="4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V4" s="4">
-        <v>80</v>
-      </c>
-      <c r="W4" s="4">
-        <v>120</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="Z4" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>118</v>
+        <v>2</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>18</v>
       </c>
       <c r="AB4" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>18</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-    </row>
-    <row r="5" spans="1:35">
+        <v>112</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4">
         <v>2.5</v>
@@ -2902,91 +2377,79 @@
         <v>71</v>
       </c>
       <c r="G5" s="4">
-        <v>0.6</v>
+        <v>2200</v>
       </c>
       <c r="H5" s="4">
-        <v>0.6</v>
+        <v>550</v>
       </c>
       <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <v>99999</v>
+      </c>
+      <c r="M5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2200</v>
-      </c>
-      <c r="L5" s="4">
-        <v>550</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
       <c r="N5" s="4">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="O5" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>200</v>
       </c>
       <c r="P5" s="4">
-        <v>99999</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="4">
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="S5" s="4">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="T5" s="4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V5" s="4">
-        <v>80</v>
-      </c>
-      <c r="W5" s="4">
-        <v>120</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="Z5" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>118</v>
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>18</v>
       </c>
       <c r="AB5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>18</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3030,52 +2493,52 @@
         <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="N1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="11" customFormat="1">
@@ -3083,10 +2546,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
@@ -3095,45 +2558,45 @@
         <v>49</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
@@ -3148,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -3186,7 +2649,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B4" s="4">
         <v>12</v>
@@ -3201,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G4" s="4">
         <v>-8</v>
@@ -3239,7 +2702,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4">
         <v>12</v>
@@ -3254,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G5" s="4">
         <v>8</v>
@@ -3292,7 +2755,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -3307,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -3345,7 +2808,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B7" s="4">
         <v>16</v>
@@ -3360,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -3398,7 +2861,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B8" s="4">
         <v>16</v>
@@ -3413,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -3451,7 +2914,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B9" s="4">
         <v>16</v>
@@ -3466,7 +2929,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -3515,114 +2978,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="8" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
-      <c r="A1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1">
-      <c r="A2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="7" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="4">
-        <v>100</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3644,16 +2999,16 @@
         <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1">
@@ -3661,21 +3016,21 @@
         <v>48</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -3701,7 +3056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -3720,47 +3075,47 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -3780,7 +3135,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -3800,7 +3155,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -3820,7 +3175,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B6" s="4">
         <v>7.0000000000000007E-2</v>
@@ -3840,7 +3195,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
@@ -3860,7 +3215,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4">
         <v>0.2</v>
@@ -3880,7 +3235,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B9" s="4">
         <v>0.15</v>
@@ -3900,7 +3255,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B10" s="4">
         <v>0.05</v>
@@ -3928,4 +3283,380 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14.25">
+      <c r="A1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>130</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>170</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>210</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>350</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>400</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>450</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>570</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>640</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>710</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>780</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>850</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>930</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1010</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1090</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1170</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1250</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1350</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1450</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1550</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1650</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1800</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="735" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="735" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
   <si>
     <t>地图宽</t>
   </si>
@@ -296,42 +296,12 @@
     <t>回血</t>
   </si>
   <si>
-    <t>名字显示字体</t>
-  </si>
-  <si>
-    <t>名字显示填充色</t>
-  </si>
-  <si>
-    <t>名字显示沟边色</t>
-  </si>
-  <si>
-    <t>名字显示沟边宽度</t>
-  </si>
-  <si>
-    <t>名字显示高度偏移</t>
-  </si>
-  <si>
     <t>武器</t>
   </si>
   <si>
     <t>hpRegen</t>
   </si>
   <si>
-    <t>namebar.font</t>
-  </si>
-  <si>
-    <t>namebar.fill</t>
-  </si>
-  <si>
-    <t>namebar.stroke</t>
-  </si>
-  <si>
-    <t>namebar.strokeThickness</t>
-  </si>
-  <si>
-    <t>namebar.yOffset</t>
-  </si>
-  <si>
     <t>weapons.0</t>
   </si>
   <si>
@@ -347,19 +317,7 @@
     <t>base</t>
   </si>
   <si>
-    <t>18px Arail</t>
-  </si>
-  <si>
-    <t>0x101010</t>
-  </si>
-  <si>
-    <t>0xf0f0f0</t>
-  </si>
-  <si>
     <t>twin</t>
-  </si>
-  <si>
-    <t>19px Arail</t>
   </si>
   <si>
     <t>twin-left</t>
@@ -692,7 +650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,12 +678,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,9 +761,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1254,36 +1203,36 @@
         <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="16" customFormat="1">
+    <row r="2" spans="1:6" s="15" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>26</v>
@@ -1385,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>38</v>
@@ -1438,7 +1387,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>54</v>
@@ -1447,13 +1396,13 @@
         <v>55</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>58</v>
@@ -1570,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1629,10 +1578,10 @@
         <v>37</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>38</v>
@@ -1697,10 +1646,10 @@
         <v>57</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>58</v>
@@ -1950,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1978,16 +1927,12 @@
     <col min="20" max="20" width="11.625" customWidth="1"/>
     <col min="21" max="21" width="22.125" customWidth="1"/>
     <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="12.625" customWidth="1"/>
-    <col min="24" max="25" width="14.5" customWidth="1"/>
-    <col min="26" max="26" width="22.625" customWidth="1"/>
-    <col min="27" max="27" width="16.375" customWidth="1"/>
-    <col min="28" max="28" width="11.125" customWidth="1"/>
-    <col min="29" max="29" width="11.625" customWidth="1"/>
-    <col min="30" max="31" width="11.125" customWidth="1"/>
+    <col min="23" max="23" width="11.125" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="26" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:26">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
@@ -2022,7 +1967,7 @@
         <v>88</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>38</v>
@@ -2054,35 +1999,20 @@
       <c r="V1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="X1" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="11" customFormat="1">
+      <c r="X1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
@@ -2114,10 +2044,10 @@
         <v>57</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>58</v>
@@ -2150,36 +2080,21 @@
         <v>67</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" s="7" customFormat="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4">
         <v>2.5</v>
@@ -2245,30 +2160,15 @@
         <v>10</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-    </row>
-    <row r="4" spans="1:31">
+        <v>95</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B4" s="4">
         <v>2.5</v>
@@ -2334,30 +2234,15 @@
         <v>10</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-    </row>
-    <row r="5" spans="1:31">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
@@ -2425,31 +2310,16 @@
         <v>10</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2493,52 +2363,52 @@
         <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>75</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="11" customFormat="1">
@@ -2546,10 +2416,10 @@
         <v>48</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>50</v>
@@ -2561,42 +2431,42 @@
         <v>78</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="M2" s="13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
@@ -2611,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -2649,7 +2519,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B4" s="4">
         <v>12</v>
@@ -2664,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G4" s="4">
         <v>-8</v>
@@ -2702,7 +2572,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4">
         <v>12</v>
@@ -2717,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G5" s="4">
         <v>8</v>
@@ -2755,7 +2625,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -2770,7 +2640,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2808,7 +2678,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4">
         <v>16</v>
@@ -2823,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2861,7 +2731,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B8" s="4">
         <v>16</v>
@@ -2876,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -2914,7 +2784,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4">
         <v>16</v>
@@ -2929,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -2999,16 +2869,16 @@
         <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1">
@@ -3016,21 +2886,21 @@
         <v>48</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -3075,47 +2945,47 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -3135,7 +3005,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -3155,7 +3025,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -3175,7 +3045,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B6" s="4">
         <v>7.0000000000000007E-2</v>
@@ -3195,7 +3065,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
@@ -3215,7 +3085,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B8" s="4">
         <v>0.2</v>
@@ -3235,7 +3105,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B9" s="4">
         <v>0.15</v>
@@ -3255,7 +3125,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B10" s="4">
         <v>0.05</v>
@@ -3299,25 +3169,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>183</v>
+      <c r="A1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="735" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="735" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="configMap" sheetId="1" r:id="rId1"/>
-    <sheet name="configWorld" sheetId="2" r:id="rId2"/>
-    <sheet name="configBullets" sheetId="3" r:id="rId3"/>
-    <sheet name="configObstacles" sheetId="4" r:id="rId4"/>
-    <sheet name="configTanks" sheetId="5" r:id="rId5"/>
-    <sheet name="configWeapons" sheetId="6" r:id="rId6"/>
-    <sheet name="configDieAnimation" sheetId="8" r:id="rId7"/>
-    <sheet name="configPropAdd" sheetId="9" r:id="rId8"/>
-    <sheet name="configLevelUp" sheetId="10" r:id="rId9"/>
+    <sheet name="configBullets" sheetId="3" r:id="rId2"/>
+    <sheet name="configObstacles" sheetId="4" r:id="rId3"/>
+    <sheet name="configTanks" sheetId="5" r:id="rId4"/>
+    <sheet name="configWeapons" sheetId="6" r:id="rId5"/>
+    <sheet name="configDieAnimation" sheetId="8" r:id="rId6"/>
+    <sheet name="configPropAdd" sheetId="9" r:id="rId7"/>
+    <sheet name="configLevelUp" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="164">
   <si>
     <t>地图宽</t>
   </si>
@@ -90,24 +89,6 @@
   </si>
   <si>
     <t>0xcdcdcd</t>
-  </si>
-  <si>
-    <t>逻辑帧率</t>
-  </si>
-  <si>
-    <t>地图逻辑处理分格大小</t>
-  </si>
-  <si>
-    <t>中立物最大数量</t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>gridSize</t>
-  </si>
-  <si>
-    <t>maxObstaclesCount</t>
   </si>
   <si>
     <t>别名</t>
@@ -505,30 +486,6 @@
   </si>
   <si>
     <t>degree</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞检测保护时长(帧)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitCollideCheckFrame</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>syncRotationFrame</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>syncForceFrame</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步移动间隔(帧)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步旋转间隔(帧)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -717,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,9 +718,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,98 +1136,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="15" customFormat="1">
-      <c r="A2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="7" customFormat="1">
-      <c r="A3" s="4">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>128</v>
-      </c>
-      <c r="E3" s="4">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -1301,158 +1166,158 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="H1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="J1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="J2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="L2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G3" s="4">
         <v>25</v>
@@ -1515,7 +1380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V5"/>
   <sheetViews>
@@ -1548,143 +1413,143 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -1693,13 +1558,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" s="4">
         <v>2.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4">
         <v>100</v>
@@ -1752,7 +1617,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -1761,13 +1626,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4">
         <v>2.5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4">
         <v>400</v>
@@ -1820,7 +1685,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -1829,13 +1694,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4">
         <v>2.5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4">
         <v>1000</v>
@@ -1897,11 +1762,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="U1" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
@@ -1934,182 +1799,182 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="I1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="J1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="W1" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="K2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="W2" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4">
         <v>2.5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4">
         <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G3" s="4">
         <v>1800</v>
@@ -2160,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -2168,22 +2033,22 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B4" s="4">
         <v>2.5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="4">
         <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G4" s="4">
         <v>2000</v>
@@ -2234,32 +2099,32 @@
         <v>10</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4">
         <v>2.5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4">
         <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G5" s="4">
         <v>2200</v>
@@ -2310,16 +2175,16 @@
         <v>10</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -2360,113 +2225,113 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="K1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="11" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4">
         <v>15</v>
@@ -2475,13 +2340,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -2490,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -2519,7 +2384,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4">
         <v>12</v>
@@ -2528,13 +2393,13 @@
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G4" s="4">
         <v>-8</v>
@@ -2543,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -2572,7 +2437,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4">
         <v>12</v>
@@ -2581,13 +2446,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4">
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G5" s="4">
         <v>8</v>
@@ -2596,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J5" s="4">
         <v>0</v>
@@ -2625,7 +2490,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4">
         <v>16</v>
@@ -2634,13 +2499,13 @@
         <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -2649,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -2678,7 +2543,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4">
         <v>16</v>
@@ -2687,13 +2552,13 @@
         <v>38</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -2702,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J7" s="4">
         <v>90</v>
@@ -2731,7 +2596,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4">
         <v>16</v>
@@ -2740,13 +2605,13 @@
         <v>38</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -2755,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J8" s="4">
         <v>180</v>
@@ -2784,7 +2649,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" s="4">
         <v>16</v>
@@ -2793,13 +2658,13 @@
         <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -2808,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J9" s="4">
         <v>270</v>
@@ -2847,7 +2712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2866,41 +2731,41 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="7" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -2926,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -2945,47 +2810,47 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -3005,7 +2870,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -3025,7 +2890,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -3045,7 +2910,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B6" s="4">
         <v>7.0000000000000007E-2</v>
@@ -3065,7 +2930,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
@@ -3085,7 +2950,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" s="4">
         <v>0.2</v>
@@ -3105,7 +2970,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B9" s="4">
         <v>0.15</v>
@@ -3125,7 +2990,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B10" s="4">
         <v>0.05</v>
@@ -3155,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -3169,25 +3034,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>169</v>
+      <c r="A1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600" tabRatio="735" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="735"/>
   </bookViews>
   <sheets>
     <sheet name="configBullets" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="configPropAdd" sheetId="9" r:id="rId5"/>
     <sheet name="configLevelUp" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="164">
   <si>
     <t>别名</t>
   </si>
@@ -83,12 +83,6 @@
     <t>自旋速度</t>
   </si>
   <si>
-    <t>碰撞弹射初值</t>
-  </si>
-  <si>
-    <t>碰撞弹射位置加幅</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
     <t>velocity.rv</t>
   </si>
   <si>
-    <t>velocity.springBase</t>
-  </si>
-  <si>
-    <t>velocity.springAdd</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
@@ -200,15 +188,6 @@
     <t>0x768dfc</t>
   </si>
   <si>
-    <t>勾边宽度</t>
-  </si>
-  <si>
-    <t>颜色(敌方)</t>
-  </si>
-  <si>
-    <t>view.颜色(己方)</t>
-  </si>
-  <si>
     <t>回血</t>
   </si>
   <si>
@@ -230,48 +209,6 @@
     <t>weapons.3</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>twin</t>
-  </si>
-  <si>
-    <t>twin-left</t>
-  </si>
-  <si>
-    <t>twin-right</t>
-  </si>
-  <si>
-    <t>quad-up</t>
-  </si>
-  <si>
-    <t>quad-right</t>
-  </si>
-  <si>
-    <t>quad-down</t>
-  </si>
-  <si>
-    <t>quad-left</t>
-  </si>
-  <si>
-    <t>显示宽</t>
-  </si>
-  <si>
-    <t>显示高</t>
-  </si>
-  <si>
-    <t>显示勾边宽</t>
-  </si>
-  <si>
-    <t>颜色</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>子弹</t>
   </si>
   <si>
@@ -281,57 +218,24 @@
     <t>射击位置偏移</t>
   </si>
   <si>
-    <t>射击间隔帧数</t>
-  </si>
-  <si>
-    <t>射击延迟帧数</t>
-  </si>
-  <si>
     <t>射击角度扰动</t>
   </si>
   <si>
     <t>后坐力</t>
   </si>
   <si>
-    <t>射击动画总帧数</t>
-  </si>
-  <si>
-    <t>射击动画移动距离</t>
-  </si>
-  <si>
-    <t>view.w</t>
-  </si>
-  <si>
-    <t>view.h</t>
-  </si>
-  <si>
     <t>bullet</t>
   </si>
   <si>
     <t>shootOffset</t>
   </si>
   <si>
-    <t>reloadFrame</t>
-  </si>
-  <si>
-    <t>shootDelayFrame</t>
-  </si>
-  <si>
     <t>disturbDeg</t>
   </si>
   <si>
     <t>recoil</t>
   </si>
   <si>
-    <t>fireAnimFrame</t>
-  </si>
-  <si>
-    <t>fireAnimDistance</t>
-  </si>
-  <si>
-    <t>0x999999</t>
-  </si>
-  <si>
     <t>加点类型</t>
   </si>
   <si>
@@ -390,10 +294,6 @@
   </si>
   <si>
     <t>PT_MOVEMENT_SPEED</t>
-  </si>
-  <si>
-    <t>durationFrame</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>degree</t>
@@ -441,6 +341,251 @@
   </si>
   <si>
     <t>bulletResist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>101_base</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>102_machine_gun</t>
+  </si>
+  <si>
+    <t>103_flank_guard</t>
+  </si>
+  <si>
+    <t>104_twin_shot</t>
+  </si>
+  <si>
+    <t>105_sniper</t>
+  </si>
+  <si>
+    <t>106_destoryer</t>
+  </si>
+  <si>
+    <t>107_sprayer</t>
+  </si>
+  <si>
+    <t>108_triangle</t>
+  </si>
+  <si>
+    <t>109_quad</t>
+  </si>
+  <si>
+    <t>110_twin_flank</t>
+  </si>
+  <si>
+    <t>111_triple_shot</t>
+  </si>
+  <si>
+    <t>112_assasin</t>
+  </si>
+  <si>
+    <t>113_overseer</t>
+  </si>
+  <si>
+    <t>114_destroyer_2</t>
+  </si>
+  <si>
+    <t>115_sprayer_2</t>
+  </si>
+  <si>
+    <t>116_triangle_2</t>
+  </si>
+  <si>
+    <t>117_octo_tank</t>
+  </si>
+  <si>
+    <t>118_tripet</t>
+  </si>
+  <si>
+    <t>119_penta_shot</t>
+  </si>
+  <si>
+    <t>120_ranger</t>
+  </si>
+  <si>
+    <t>121_overload</t>
+  </si>
+  <si>
+    <t>122_necromanc</t>
+  </si>
+  <si>
+    <t>123_triple_flank</t>
+  </si>
+  <si>
+    <t>124_trapper</t>
+  </si>
+  <si>
+    <t>125_tri_trapper</t>
+  </si>
+  <si>
+    <t>126_gunner_trapper</t>
+  </si>
+  <si>
+    <t>127_mega_trapper</t>
+  </si>
+  <si>
+    <t>128_gunner</t>
+  </si>
+  <si>
+    <t>129_gunner_2</t>
+  </si>
+  <si>
+    <t>130_fighter</t>
+  </si>
+  <si>
+    <t>upgrade.level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶形态一</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶形态二</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶形态三</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade.next.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade.next.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade.next.2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade.next.3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>reloadSeconds</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootDelaySeconds</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击延迟时间秒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础偏移x</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础偏移y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aseOffsetX</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aseOffsetY</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击频率hz</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons.4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapons.7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞弹射速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞弹射抵抗速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity.spring</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity.springResist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeSeconds</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +593,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +654,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -566,7 +728,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,8 +738,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -620,10 +788,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -918,18 +1094,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
@@ -940,8 +1116,8 @@
     <col min="18" max="18" width="16.1640625" customWidth="1"/>
     <col min="19" max="19" width="17.1640625" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.1640625" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -979,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>11</v>
@@ -1006,101 +1182,101 @@
         <v>18</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="4">
         <v>220</v>
@@ -1112,25 +1288,25 @@
         <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L3" s="4">
         <v>220</v>
       </c>
       <c r="M3" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <v>60</v>
+        <v>18.75</v>
       </c>
       <c r="P3" s="4">
-        <v>600</v>
+        <v>187.5</v>
       </c>
       <c r="Q3" s="4">
-        <v>150</v>
+        <v>93.75</v>
       </c>
       <c r="R3" s="4">
         <v>0</v>
@@ -1142,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>30</v>
+        <v>875</v>
       </c>
       <c r="V3" s="4">
-        <v>10</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -1164,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1179,7 +1355,7 @@
     <col min="7" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.1640625" customWidth="1"/>
     <col min="14" max="15" width="16.1640625" customWidth="1"/>
@@ -1187,8 +1363,8 @@
     <col min="18" max="18" width="16.1640625" customWidth="1"/>
     <col min="19" max="19" width="16.33203125" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -1196,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>7</v>
@@ -1223,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>11</v>
@@ -1253,83 +1429,83 @@
         <v>18</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -1338,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4">
         <v>2.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4">
         <v>100</v>
@@ -1359,13 +1535,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4">
         <v>300</v>
       </c>
       <c r="M3" s="4">
-        <v>3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
@@ -1374,45 +1550,45 @@
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="4">
-        <v>3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R3" s="4">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="S3" s="4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T3" s="4">
         <v>0.5</v>
       </c>
       <c r="U3" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4">
         <v>2.5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G4" s="4">
         <v>400</v>
@@ -1427,13 +1603,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L4" s="4">
         <v>600</v>
       </c>
       <c r="M4" s="4">
-        <v>3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
@@ -1442,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="4">
-        <v>3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R4" s="4">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="S4" s="4">
         <v>100</v>
@@ -1457,30 +1633,30 @@
         <v>0.5</v>
       </c>
       <c r="U4" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4">
         <v>2.5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" s="4">
         <v>1000</v>
@@ -1495,13 +1671,13 @@
         <v>24</v>
       </c>
       <c r="K5" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="L5" s="4">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="M5" s="4">
-        <v>3</v>
+        <v>0.375</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
@@ -1510,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="P5" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="4">
-        <v>3</v>
+        <v>0.375</v>
       </c>
       <c r="R5" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="S5" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="T5" s="4">
         <v>0.5</v>
       </c>
       <c r="U5" s="4">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="V5" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1544,427 +1720,2559 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" customWidth="1"/>
-    <col min="14" max="15" width="16.1640625" customWidth="1"/>
-    <col min="16" max="17" width="17.1640625" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.1640625" customWidth="1"/>
-    <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="11.1640625" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" customWidth="1"/>
-    <col min="25" max="26" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="21" width="11.1640625" customWidth="1"/>
+    <col min="22" max="22" width="17.1640625" customWidth="1"/>
+    <col min="23" max="24" width="16.1640625" customWidth="1"/>
+    <col min="25" max="26" width="17.1640625" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" customWidth="1"/>
+    <col min="28" max="28" width="17.1640625" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:31">
       <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="9" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="P2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="Q2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="R2" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1">
+      <c r="A3" s="4">
+        <v>101</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1800</v>
+      </c>
+      <c r="C3" s="4">
+        <v>450</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>104</v>
+      </c>
+      <c r="K3" s="4">
+        <v>103</v>
+      </c>
+      <c r="L3" s="4">
+        <v>105</v>
+      </c>
+      <c r="M3" s="4">
+        <v>105</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1010</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X3" s="4">
+        <f>W3/2</f>
+        <v>893.5</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="4">
+        <v>102</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C4" s="4">
+        <v>500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
+        <v>106</v>
+      </c>
+      <c r="K4" s="4">
+        <v>128</v>
+      </c>
+      <c r="L4" s="4">
+        <v>107</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>1020</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X32" si="0">W4/2</f>
+        <v>893.5</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="4">
+        <v>103</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="4">
+        <v>500</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="4">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4">
+        <v>108</v>
+      </c>
+      <c r="K5" s="4">
+        <v>109</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>1030</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1031</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2055</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="0"/>
+        <v>1027.5</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>93</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>1680</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1450</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="4">
+        <v>104</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>500</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4">
+        <v>110</v>
+      </c>
+      <c r="K6" s="4">
+        <v>111</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>1040</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1041</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="4">
+        <v>105</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1700</v>
+      </c>
+      <c r="C7" s="4">
+        <v>500</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <v>112</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>1050</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="4">
+        <v>106</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2420</v>
+      </c>
+      <c r="C8" s="4">
+        <v>550</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="4">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>1060</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="4">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2420</v>
+      </c>
+      <c r="C9" s="4">
+        <v>550</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="4">
+        <v>30</v>
+      </c>
+      <c r="J9" s="4">
+        <v>115</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>1070</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1071</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="4">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C10" s="4">
+        <v>550</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="4">
+        <v>30</v>
+      </c>
+      <c r="J10" s="4">
+        <v>130</v>
+      </c>
+      <c r="K10" s="4">
+        <v>116</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>1080</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1081</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1082</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <v>2145</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="0"/>
+        <v>1072.5</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>1755</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1500</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="4">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C11" s="4">
+        <v>550</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="4">
+        <v>30</v>
+      </c>
+      <c r="J11" s="4">
+        <v>117</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>1090</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1091</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1092</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1093</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>2055</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="0"/>
+        <v>1027.5</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>93</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>1681</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1450</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="4">
+        <v>110</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C12" s="4">
+        <v>550</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="4">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4">
+        <v>123</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>1100</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1101</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1102</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1103</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="4">
+        <v>111</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C13" s="4">
+        <v>550</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="4">
+        <v>30</v>
+      </c>
+      <c r="J13" s="4">
+        <v>118</v>
+      </c>
+      <c r="K13" s="4">
+        <v>119</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4">
+        <v>1110</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1111</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1112</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="4">
+        <v>112</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1870</v>
+      </c>
+      <c r="C14" s="4">
+        <v>550</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="4">
+        <v>30</v>
+      </c>
+      <c r="J14" s="4">
+        <v>120</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4">
+        <v>1120</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="4">
+        <v>113</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C15" s="4">
+        <v>550</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="4">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4">
+        <v>121</v>
+      </c>
+      <c r="K15" s="4">
+        <v>122</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="4">
+        <v>114</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2640</v>
+      </c>
+      <c r="C16" s="4">
+        <v>600</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>25</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4">
+        <v>1140</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="4">
+        <v>115</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2640</v>
+      </c>
+      <c r="C17" s="4">
+        <v>600</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>25</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>1150</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1151</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="4">
+        <v>116</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C18" s="4">
+        <v>600</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4">
+        <v>1160</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1161</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1162</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1163</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1164</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>2234</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="0"/>
+        <v>1117</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>101</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>1828</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1550</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="4">
+        <v>117</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C19" s="4">
+        <v>600</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4">
+        <v>1170</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1171</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1172</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1173</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1174</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1175</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1176</v>
+      </c>
+      <c r="U19" s="4">
+        <v>1177</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>2145</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="0"/>
+        <v>1072.5</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1755</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>1500</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="4">
+        <v>118</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C20" s="4">
+        <v>600</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4">
+        <v>1180</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1181</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1182</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="4">
+        <v>119</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C21" s="4">
+        <v>600</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>1190</v>
+      </c>
+      <c r="O21" s="4">
+        <v>1191</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1192</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>1193</v>
+      </c>
+      <c r="R21" s="4">
+        <v>1194</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="4">
+        <v>120</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2040</v>
+      </c>
+      <c r="C22" s="4">
+        <v>600</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>25</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
+        <v>1200</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="4">
+        <v>121</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C23" s="4">
+        <v>600</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="4">
+        <v>122</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C24" s="4">
+        <v>600</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="4">
+        <v>123</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C25" s="4">
+        <v>600</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>25</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
+        <v>1230</v>
+      </c>
+      <c r="O25" s="4">
+        <v>1231</v>
+      </c>
+      <c r="P25" s="4">
+        <v>1232</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1233</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1234</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1235</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="4">
+        <v>124</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C26" s="4">
+        <v>550</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>25</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="4">
+        <v>30</v>
+      </c>
+      <c r="J26" s="4">
+        <v>127</v>
+      </c>
+      <c r="K26" s="4">
+        <v>125</v>
+      </c>
+      <c r="L26" s="4">
+        <v>126</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
+        <v>1240</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4">
+        <v>0</v>
+      </c>
+      <c r="W26" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="4">
+        <v>125</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C27" s="4">
+        <v>600</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4">
+        <v>1250</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1251</v>
+      </c>
+      <c r="P27" s="4">
+        <v>1252</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X27" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="4">
+        <v>126</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C28" s="4">
+        <v>600</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>25</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4">
+        <v>1260</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1261</v>
+      </c>
+      <c r="P28" s="4">
+        <v>1262</v>
+      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4">
+        <v>0</v>
+      </c>
+      <c r="W28" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="4">
+        <v>127</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C29" s="4">
+        <v>600</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>25</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4">
+        <v>1270</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X29" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="4">
+        <v>128</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2420</v>
+      </c>
+      <c r="C30" s="4">
+        <v>550</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>25</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="9" customFormat="1">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4">
+        <v>1280</v>
+      </c>
+      <c r="O30" s="4">
+        <v>1281</v>
+      </c>
+      <c r="P30" s="4">
+        <v>1282</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>1283</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="4">
+        <v>129</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2640</v>
+      </c>
+      <c r="C31" s="4">
+        <v>600</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="F31" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>99999</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="6" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="4">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1800</v>
-      </c>
-      <c r="H3" s="4">
-        <v>450</v>
-      </c>
-      <c r="I3" s="4">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
+        <v>1290</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1291</v>
+      </c>
+      <c r="P31" s="4">
+        <v>1292</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>1293</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>1787</v>
+      </c>
+      <c r="X31" s="4">
+        <f t="shared" si="0"/>
+        <v>893.5</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>1462</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>1250</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="4">
+        <v>130</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2400</v>
+      </c>
+      <c r="C32" s="4">
+        <v>600</v>
+      </c>
+      <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="4">
-        <v>24</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="E32" s="4">
+        <v>25</v>
+      </c>
+      <c r="F32" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="G32" s="4">
         <v>99999</v>
       </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>400</v>
-      </c>
-      <c r="O3" s="4">
-        <v>200</v>
-      </c>
-      <c r="P3" s="4">
-        <v>160</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>80</v>
-      </c>
-      <c r="S3" s="4">
-        <v>120</v>
-      </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>30</v>
-      </c>
-      <c r="V3" s="4">
-        <v>10</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H4" s="4">
-        <v>500</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>26</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L4" s="4">
-        <v>99999</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>400</v>
-      </c>
-      <c r="O4" s="4">
-        <v>200</v>
-      </c>
-      <c r="P4" s="4">
-        <v>160</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>80</v>
-      </c>
-      <c r="S4" s="4">
-        <v>120</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>30</v>
-      </c>
-      <c r="V4" s="4">
-        <v>10</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2200</v>
-      </c>
-      <c r="H5" s="4">
-        <v>550</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>26</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L5" s="4">
-        <v>99999</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>400</v>
-      </c>
-      <c r="O5" s="4">
-        <v>200</v>
-      </c>
-      <c r="P5" s="4">
-        <v>160</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>80</v>
-      </c>
-      <c r="S5" s="4">
-        <v>120</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>30</v>
-      </c>
-      <c r="V5" s="4">
-        <v>10</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>75</v>
+      <c r="H32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
+        <v>1300</v>
+      </c>
+      <c r="O32" s="4">
+        <v>1301</v>
+      </c>
+      <c r="P32" s="4">
+        <v>1302</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>1303</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1304</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>2145</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="0"/>
+        <v>1072.5</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>1755</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>1500</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -1981,504 +4289,4205 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" customWidth="1"/>
-    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1">
+    <row r="1" spans="1:11" s="5" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>80</v>
+        <v>145</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="9" customFormat="1">
-      <c r="A2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2010</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4">
+        <v>1020</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4">
+        <v>1030</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>9</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4">
+        <v>1031</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2030</v>
+      </c>
+      <c r="D6" s="4">
+        <v>180</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>9</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
+        <v>1040</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>6</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4">
+        <v>1041</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2040</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2050</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4">
+        <v>1060</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2060</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4">
+        <v>1070</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2070</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="4">
+        <v>1071</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2071</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>15</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4">
+        <v>1080</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2081</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4">
+        <v>1081</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2080</v>
+      </c>
+      <c r="D14" s="4">
+        <v>164</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4">
+        <v>1082</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2080</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-164</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.47</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4">
+        <v>1090</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2090</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4">
+        <v>1091</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2090</v>
+      </c>
+      <c r="D17" s="4">
+        <v>90</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>6</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4">
+        <v>1092</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2090</v>
+      </c>
+      <c r="D18" s="4">
+        <v>180</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>6</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4">
+        <v>1093</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2090</v>
+      </c>
+      <c r="D19" s="4">
+        <v>270</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>6</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4">
+        <v>1100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2100</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4">
+        <v>1101</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2100</v>
+      </c>
+      <c r="D21" s="4">
+        <v>180</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4">
+        <v>1102</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2100</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4">
+        <v>1103</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2100</v>
+      </c>
+      <c r="D23" s="4">
+        <v>180</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4">
+        <v>1110</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>6</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4">
+        <v>1111</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D25" s="4">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>6</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="4">
+        <v>1112</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2110</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-28</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.21</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <v>6</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4">
+        <v>1120</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2120</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4">
+        <v>1140</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2140</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="4">
+        <v>1150</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2150</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>15</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4">
+        <v>1151</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2151</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J30" s="4">
+        <v>15</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="4">
+        <v>1160</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2161</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="4">
+        <v>1161</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2160</v>
+      </c>
+      <c r="D32" s="4">
+        <v>136</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="4">
+        <v>1162</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2160</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-136</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4">
+        <v>1163</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2160</v>
+      </c>
+      <c r="D34" s="4">
+        <v>136</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4">
+        <v>1164</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2160</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-136</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4">
+        <v>1170</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="4">
+        <v>1171</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>3</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="4">
+        <v>1172</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D38" s="4">
+        <v>90</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>3</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="4">
+        <v>1173</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D39" s="4">
+        <v>135</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>3</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="4">
+        <v>1174</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D40" s="4">
+        <v>180</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>3</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="4">
+        <v>1175</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D41" s="4">
+        <v>225</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="4">
+        <v>3</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="4">
+        <v>1176</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D42" s="4">
+        <v>270</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="4">
+        <v>1177</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2170</v>
+      </c>
+      <c r="D43" s="4">
+        <v>315</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="4">
+        <v>1180</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2180</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>3</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="4">
+        <v>1181</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2180</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="4">
+        <v>1182</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2180</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="F46" s="4">
+        <v>-0.22</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="4">
+        <v>3</v>
+      </c>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="4">
+        <v>1190</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2190</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>3</v>
+      </c>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="4">
+        <v>1191</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2190</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-22</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3</v>
+      </c>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="4">
+        <v>1192</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2190</v>
+      </c>
+      <c r="D49" s="4">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="4">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4">
-        <v>35</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>45</v>
-      </c>
-      <c r="L3" s="4">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="E49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J49" s="4">
         <v>3</v>
       </c>
-      <c r="N3" s="4">
-        <v>15</v>
-      </c>
-      <c r="O3" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="4">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-8</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>50</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="4">
+        <v>1193</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2190</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-32</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="G50" s="4">
+        <v>-0.18</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J50" s="4">
         <v>3</v>
       </c>
-      <c r="N4" s="4">
-        <v>15</v>
-      </c>
-      <c r="O4" s="4">
-        <v>8000</v>
-      </c>
-      <c r="P4" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="4">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>50</v>
-      </c>
-      <c r="L5" s="4">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4">
-        <v>6</v>
-      </c>
-      <c r="N5" s="4">
-        <v>15</v>
-      </c>
-      <c r="O5" s="4">
-        <v>8000</v>
-      </c>
-      <c r="P5" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="4">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>48</v>
-      </c>
-      <c r="L6" s="4">
-        <v>10</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="4">
+        <v>1194</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2190</v>
+      </c>
+      <c r="D51" s="4">
+        <v>32</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-0.21</v>
+      </c>
+      <c r="G51" s="4">
+        <v>-0.18</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J51" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
-        <v>15</v>
-      </c>
-      <c r="O6" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P6" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="4">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4">
-        <v>38</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="4">
+        <v>1200</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2200</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="4">
+        <v>1230</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2230</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-0.17</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>3</v>
+      </c>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="4">
+        <v>1231</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2230</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="4">
+        <v>3</v>
+      </c>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="4">
+        <v>1232</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2230</v>
+      </c>
+      <c r="D55" s="4">
+        <v>137</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>3</v>
+      </c>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="4">
+        <v>1233</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2230</v>
+      </c>
+      <c r="D56" s="4">
+        <v>137</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F56" s="4">
+        <v>-0.15</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="4">
+        <v>3</v>
+      </c>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="4">
+        <v>1234</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2230</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-137</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>3</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="4">
+        <v>1235</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2230</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-137</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="F58" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="4">
+        <v>3</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="4">
+        <v>1240</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2240</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <v>3</v>
+      </c>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="4">
+        <v>1250</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2250</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="4">
+        <v>1251</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2250</v>
+      </c>
+      <c r="D61" s="4">
+        <v>130</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F61" s="4">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="4">
+        <v>1252</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2250</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-130</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="4">
+        <v>1260</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2260</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="4">
+        <v>1261</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2261</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-180</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F64" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0</v>
+      </c>
+      <c r="K64" s="4"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="4">
+        <v>1262</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2261</v>
+      </c>
+      <c r="D65" s="4">
+        <v>180</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0</v>
+      </c>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="4">
+        <v>1270</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2270</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0</v>
+      </c>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="4">
+        <v>1280</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2280</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F67" s="4">
+        <v>-0.13</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="4">
+        <v>1281</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2280</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="4"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="4">
+        <v>1282</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2280</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G69" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="4">
+        <v>1283</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2280</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F70" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="G70" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0</v>
+      </c>
+      <c r="K70" s="4"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="4">
+        <v>1290</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2290</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F71" s="4">
+        <v>-0.19</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="4">
+        <v>1291</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="4">
+        <v>2290</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="4">
+        <v>1292</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="4">
+        <v>2290</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G73" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="4">
+        <v>1293</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2290</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F74" s="4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G74" s="4">
+        <v>-0.12</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="4">
+        <v>1300</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2301</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>3</v>
+      </c>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="4">
+        <v>1301</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="4">
+        <v>2300</v>
+      </c>
+      <c r="D76" s="4">
+        <v>156</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F76" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="4">
+        <v>1302</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2300</v>
+      </c>
+      <c r="D77" s="4">
+        <v>-156</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="4">
+        <v>1303</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2300</v>
+      </c>
+      <c r="D78" s="4">
         <v>90</v>
       </c>
-      <c r="K7" s="4">
-        <v>48</v>
-      </c>
-      <c r="L7" s="4">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4">
-        <v>6</v>
-      </c>
-      <c r="N7" s="4">
-        <v>15</v>
-      </c>
-      <c r="O7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P7" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="4">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="4">
-        <v>180</v>
-      </c>
-      <c r="K8" s="4">
-        <v>48</v>
-      </c>
-      <c r="L8" s="4">
-        <v>10</v>
-      </c>
-      <c r="M8" s="4">
-        <v>3</v>
-      </c>
-      <c r="N8" s="4">
-        <v>15</v>
-      </c>
-      <c r="O8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P8" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="4">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="4">
-        <v>270</v>
-      </c>
-      <c r="K9" s="4">
-        <v>48</v>
-      </c>
-      <c r="L9" s="4">
-        <v>10</v>
-      </c>
-      <c r="M9" s="4">
-        <v>6</v>
-      </c>
-      <c r="N9" s="4">
-        <v>15</v>
-      </c>
-      <c r="O9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="P9" s="4">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>5</v>
-      </c>
+      <c r="E78" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F78" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="4">
+        <v>1304</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2300</v>
+      </c>
+      <c r="D79" s="4">
+        <v>-90</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0</v>
+      </c>
+      <c r="H79" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
+      <c r="I196" s="4"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
+      <c r="I197" s="4"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
+      <c r="I198" s="4"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
+      <c r="I199" s="4"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
+      <c r="I200" s="4"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2496,7 +8505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -2511,47 +8520,47 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -2571,7 +8580,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -2591,7 +8600,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -2611,7 +8620,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4">
         <v>7.0000000000000007E-2</v>
@@ -2631,7 +8640,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
@@ -2651,7 +8660,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4">
         <v>0.2</v>
@@ -2671,7 +8680,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4">
         <v>0.15</v>
@@ -2691,7 +8700,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B10" s="4">
         <v>0.05</v>
@@ -2726,7 +8735,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2736,24 +8745,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="13" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="configBullets" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="164">
   <si>
     <t>别名</t>
   </si>
@@ -672,7 +672,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +703,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -728,7 +740,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,8 +756,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,12 +836,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1094,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -4289,4205 +4371,5507 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="20"/>
+    <col min="5" max="5" width="11.6640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1">
+    <row r="1" spans="1:14" s="5" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1">
+    <row r="2" spans="1:14" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1010</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="19">
         <v>2010</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="22">
         <v>0.62</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+        <f>E3*25+25</f>
+        <v>40.5</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>G3*25</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>H3*25</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>1.5</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
         <v>9</v>
       </c>
-      <c r="K3" s="4">
+      <c r="N3" s="4">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>1020</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="19">
         <v>2020</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="22">
         <v>0.5</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+        <f t="shared" ref="F4:F67" si="0">E4*25+25</f>
+        <v>37.5</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I67" si="1">G4*25</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J67" si="2">H4*25</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>12</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>1030</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="19">
         <v>2030</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="22">
         <v>0.6</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
         <v>1.85</v>
       </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>9</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>1031</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="19">
         <v>2030</v>
       </c>
       <c r="D6" s="4">
         <v>180</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="22">
         <v>0.6</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
         <v>1.85</v>
       </c>
-      <c r="I6" s="4">
+      <c r="L6" s="4">
         <v>0.5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="M6" s="4">
         <v>9</v>
       </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>1040</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="19">
         <v>2040</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="22">
         <v>0.6</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G7" s="19">
         <v>-0.15</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.75</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
         <v>1.18</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>6</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>1041</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="19">
         <v>2040</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="22">
         <v>0.6</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G8" s="19">
         <v>0.15</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
         <v>1.18</v>
       </c>
-      <c r="I8" s="4">
+      <c r="L8" s="4">
         <v>0.5</v>
       </c>
-      <c r="J8" s="4">
+      <c r="M8" s="4">
         <v>6</v>
       </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>1050</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="19">
         <v>2050</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="22">
         <v>0.88</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
         <v>0.77</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>1060</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="19">
         <v>2060</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="22">
         <v>0.6</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
         <v>0.5</v>
       </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>1070</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="19">
         <v>2070</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
         <v>1.8</v>
       </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>15</v>
       </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>1071</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="19">
         <v>2071</v>
       </c>
       <c r="D12" s="4">
         <v>0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="22">
         <v>0.61</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>40.25</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
         <v>1.8</v>
       </c>
-      <c r="I12" s="4">
+      <c r="L12" s="4">
         <v>0.5</v>
       </c>
-      <c r="J12" s="4">
+      <c r="M12" s="4">
         <v>15</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>1080</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="19">
         <v>2081</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="22">
         <v>0.72</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>1081</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="19">
         <v>2080</v>
       </c>
       <c r="D14" s="4">
         <v>164</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="22">
         <v>0.5</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G14" s="19">
         <v>-0.12</v>
       </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
         <v>1.47</v>
       </c>
-      <c r="I14" s="4">
+      <c r="L14" s="4">
         <v>0.5</v>
       </c>
-      <c r="J14" s="4">
+      <c r="M14" s="4">
         <v>6</v>
       </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>1082</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="19">
         <v>2080</v>
       </c>
       <c r="D15" s="4">
         <v>-164</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="22">
         <v>0.5</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G15" s="19">
         <v>0.12</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
         <v>1.47</v>
       </c>
-      <c r="I15" s="4">
+      <c r="L15" s="4">
         <v>0.5</v>
       </c>
-      <c r="J15" s="4">
+      <c r="M15" s="4">
         <v>6</v>
       </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>1090</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="19">
         <v>2090</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="22">
         <v>0.63</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>40.75</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
         <v>1.4</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>6</v>
       </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>1091</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="19">
         <v>2090</v>
       </c>
       <c r="D17" s="4">
         <v>90</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="22">
         <v>0.63</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>40.75</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
         <v>1.4</v>
       </c>
-      <c r="I17" s="4">
+      <c r="L17" s="4">
         <v>0.5</v>
       </c>
-      <c r="J17" s="4">
+      <c r="M17" s="4">
         <v>6</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>1092</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="19">
         <v>2090</v>
       </c>
       <c r="D18" s="4">
         <v>180</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="22">
         <v>0.63</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>40.75</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
         <v>1.4</v>
       </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
         <v>6</v>
       </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>1093</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="19">
         <v>2090</v>
       </c>
       <c r="D19" s="4">
         <v>270</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="22">
         <v>0.63</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>40.75</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
         <v>1.4</v>
       </c>
-      <c r="I19" s="4">
+      <c r="L19" s="4">
         <v>0.5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="M19" s="4">
         <v>6</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>1100</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="19">
         <v>2100</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="22">
         <v>0.62</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G20" s="19">
         <v>-0.16</v>
       </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>3</v>
       </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <v>1101</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="19">
         <v>2100</v>
       </c>
       <c r="D21" s="4">
         <v>180</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="22">
         <v>0.62</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G21" s="19">
         <v>0.16</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
         <v>3</v>
       </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="4">
         <v>1102</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="19">
         <v>2100</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="22">
         <v>0.62</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G22" s="19">
         <v>0.16</v>
       </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="L22" s="4">
         <v>0.5</v>
       </c>
-      <c r="J22" s="4">
+      <c r="M22" s="4">
         <v>3</v>
       </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="4">
         <v>1103</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="19">
         <v>2100</v>
       </c>
       <c r="D23" s="4">
         <v>180</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="22">
         <v>0.62</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G23" s="19">
         <v>-0.16</v>
       </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="L23" s="4">
         <v>0.5</v>
       </c>
-      <c r="J23" s="4">
+      <c r="M23" s="4">
         <v>3</v>
       </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="4">
         <v>1110</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="19">
         <v>2110</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
         <v>1.21</v>
       </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>6</v>
       </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="4">
         <v>1111</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="19">
         <v>2110</v>
       </c>
       <c r="D25" s="4">
         <v>28</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="22">
         <v>0.58499999999999996</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>39.625</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
         <v>1.21</v>
       </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
         <v>6</v>
       </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="4">
         <v>1112</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="19">
         <v>2110</v>
       </c>
       <c r="D26" s="4">
         <v>-28</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="22">
         <v>0.58499999999999996</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>39.625</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="4">
         <v>1.21</v>
       </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
         <v>6</v>
       </c>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="4">
         <v>1120</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="19">
         <v>2120</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="22">
         <v>0.88</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
         <v>0.6</v>
       </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="4">
         <v>1140</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="19">
         <v>2140</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="22">
         <v>0.63</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>40.75</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
         <v>0.53</v>
       </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="4">
         <v>1150</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="19">
         <v>2150</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
         <v>1.8</v>
       </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
         <v>15</v>
       </c>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="4">
         <v>1151</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="19">
         <v>2151</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="22">
         <v>0.61</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>40.25</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
         <v>1.8</v>
       </c>
-      <c r="I30" s="4">
+      <c r="L30" s="4">
         <v>0.5</v>
       </c>
-      <c r="J30" s="4">
+      <c r="M30" s="4">
         <v>15</v>
       </c>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="4">
         <v>1160</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="19">
         <v>2161</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="22">
         <v>0.73499999999999999</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>43.375</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <v>1</v>
       </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
         <v>3</v>
       </c>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="4">
         <v>1161</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="19">
         <v>2160</v>
       </c>
       <c r="D32" s="4">
         <v>136</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="22">
         <v>0.4</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G32" s="19">
         <v>-0.23</v>
       </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="H32" s="19">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.75</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
         <v>0.8</v>
       </c>
-      <c r="I32" s="4">
+      <c r="L32" s="4">
         <v>0.5</v>
       </c>
-      <c r="J32" s="4">
+      <c r="M32" s="4">
         <v>3</v>
       </c>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="4">
         <v>1162</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="19">
         <v>2160</v>
       </c>
       <c r="D33" s="4">
         <v>-136</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="22">
         <v>0.4</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G33" s="19">
         <v>0.23</v>
       </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
         <v>0.8</v>
       </c>
-      <c r="I33" s="4">
+      <c r="L33" s="4">
         <v>0.5</v>
       </c>
-      <c r="J33" s="4">
+      <c r="M33" s="4">
         <v>3</v>
       </c>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="4">
         <v>1163</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="19">
         <v>2160</v>
       </c>
       <c r="D34" s="4">
         <v>136</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="22">
         <v>0.53400000000000003</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>38.35</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="19">
         <v>-0.1</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+      <c r="K34" s="4">
         <v>0.8</v>
       </c>
-      <c r="I34" s="4">
+      <c r="L34" s="4">
         <v>0.3</v>
       </c>
-      <c r="J34" s="4">
+      <c r="M34" s="4">
         <v>3</v>
       </c>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="4">
         <v>1164</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="19">
         <v>2160</v>
       </c>
       <c r="D35" s="4">
         <v>-136</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="22">
         <v>0.53400000000000003</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>38.35</v>
+      </c>
+      <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
         <v>-0.1</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+      <c r="K35" s="4">
         <v>0.8</v>
       </c>
-      <c r="I35" s="4">
+      <c r="L35" s="4">
         <v>0.3</v>
       </c>
-      <c r="J35" s="4">
+      <c r="M35" s="4">
         <v>3</v>
       </c>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="4">
         <v>1170</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="19">
         <v>2170</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="22">
         <v>0.62</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="4">
         <v>0.86</v>
       </c>
-      <c r="I36" s="4">
-        <v>0</v>
-      </c>
-      <c r="J36" s="4">
+      <c r="L36" s="4">
+        <v>0</v>
+      </c>
+      <c r="M36" s="4">
         <v>3</v>
       </c>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="4">
         <v>1171</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="19">
         <v>2170</v>
       </c>
       <c r="D37" s="4">
         <v>45</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="22">
         <v>0.62</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
         <v>0.86</v>
       </c>
-      <c r="I37" s="4">
+      <c r="L37" s="4">
         <v>0.5</v>
       </c>
-      <c r="J37" s="4">
+      <c r="M37" s="4">
         <v>3</v>
       </c>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="4">
         <v>1172</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="19">
         <v>2170</v>
       </c>
       <c r="D38" s="4">
         <v>90</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="22">
         <v>0.62</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
         <v>0.86</v>
       </c>
-      <c r="I38" s="4">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
         <v>3</v>
       </c>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="4">
         <v>1173</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="19">
         <v>2170</v>
       </c>
       <c r="D39" s="4">
         <v>135</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="22">
         <v>0.62</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
+      <c r="H39" s="19">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
         <v>0.86</v>
       </c>
-      <c r="I39" s="4">
+      <c r="L39" s="4">
         <v>0.5</v>
       </c>
-      <c r="J39" s="4">
+      <c r="M39" s="4">
         <v>3</v>
       </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="4">
         <v>1174</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="19">
         <v>2170</v>
       </c>
       <c r="D40" s="4">
         <v>180</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="22">
         <v>0.62</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
         <v>0.86</v>
       </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
         <v>3</v>
       </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="4">
         <v>1175</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="19">
         <v>2170</v>
       </c>
       <c r="D41" s="4">
         <v>225</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="22">
         <v>0.62</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G41" s="19">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
         <v>0.86</v>
       </c>
-      <c r="I41" s="4">
+      <c r="L41" s="4">
         <v>0.5</v>
       </c>
-      <c r="J41" s="4">
+      <c r="M41" s="4">
         <v>3</v>
       </c>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="4">
         <v>1176</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="19">
         <v>2170</v>
       </c>
       <c r="D42" s="4">
         <v>270</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="22">
         <v>0.62</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G42" s="19">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
         <v>0.86</v>
       </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
         <v>3</v>
       </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="4">
         <v>1177</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="19">
         <v>2170</v>
       </c>
       <c r="D43" s="4">
         <v>315</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="22">
         <v>0.62</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="G43" s="19">
+        <v>0</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
         <v>0.86</v>
       </c>
-      <c r="I43" s="4">
+      <c r="L43" s="4">
         <v>0.5</v>
       </c>
-      <c r="J43" s="4">
+      <c r="M43" s="4">
         <v>3</v>
       </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="4">
         <v>1180</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="19">
         <v>2180</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G44" s="19">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
         <v>1</v>
       </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
         <v>3</v>
       </c>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="4">
         <v>1181</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="19">
         <v>2180</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="22">
         <v>0.51800000000000002</v>
       </c>
       <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="G45" s="19">
         <v>0.22</v>
       </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="H45" s="19">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="4">
         <v>1</v>
       </c>
-      <c r="I45" s="4">
+      <c r="L45" s="4">
         <v>0.5</v>
       </c>
-      <c r="J45" s="4">
+      <c r="M45" s="4">
         <v>3</v>
       </c>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="4">
         <v>1182</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="19">
         <v>2180</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="22">
         <v>0.51800000000000002</v>
       </c>
       <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>37.950000000000003</v>
+      </c>
+      <c r="G46" s="19">
         <v>-0.22</v>
       </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="H46" s="19">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.5</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
         <v>1</v>
       </c>
-      <c r="I46" s="4">
+      <c r="L46" s="4">
         <v>0.5</v>
       </c>
-      <c r="J46" s="4">
+      <c r="M46" s="4">
         <v>3</v>
       </c>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="4">
         <v>1190</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="19">
         <v>2190</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="22">
         <v>0.7</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="G47" s="19">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
         <v>0.81</v>
       </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
         <v>3</v>
       </c>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="4">
         <v>1191</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="19">
         <v>2190</v>
       </c>
       <c r="D48" s="4">
         <v>-22</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="22">
         <v>0.5</v>
       </c>
       <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G48" s="19">
         <v>0.16</v>
       </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="H48" s="19">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
         <v>0.81</v>
       </c>
-      <c r="I48" s="4">
+      <c r="L48" s="4">
         <v>0.2</v>
       </c>
-      <c r="J48" s="4">
+      <c r="M48" s="4">
         <v>3</v>
       </c>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="4">
         <v>1192</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="19">
         <v>2190</v>
       </c>
       <c r="D49" s="4">
         <v>22</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="22">
         <v>0.5</v>
       </c>
       <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G49" s="19">
         <v>-0.16</v>
       </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="H49" s="19">
+        <v>0</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
         <v>0.81</v>
       </c>
-      <c r="I49" s="4">
+      <c r="L49" s="4">
         <v>0.2</v>
       </c>
-      <c r="J49" s="4">
+      <c r="M49" s="4">
         <v>3</v>
       </c>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="4">
         <v>1193</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="19">
         <v>2190</v>
       </c>
       <c r="D50" s="4">
         <v>-32</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="22">
         <v>0.5</v>
       </c>
       <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G50" s="19">
         <v>0.21</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="19">
         <v>-0.18</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.5</v>
+      </c>
+      <c r="K50" s="4">
         <v>0.81</v>
       </c>
-      <c r="I50" s="4">
+      <c r="L50" s="4">
         <v>0.4</v>
       </c>
-      <c r="J50" s="4">
+      <c r="M50" s="4">
         <v>3</v>
       </c>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="4">
         <v>1194</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="19">
         <v>2190</v>
       </c>
       <c r="D51" s="4">
         <v>32</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="22">
         <v>0.5</v>
       </c>
       <c r="F51" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G51" s="19">
         <v>-0.21</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="19">
         <v>-0.18</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.25</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="2"/>
+        <v>-4.5</v>
+      </c>
+      <c r="K51" s="4">
         <v>0.81</v>
       </c>
-      <c r="I51" s="4">
+      <c r="L51" s="4">
         <v>0.4</v>
       </c>
-      <c r="J51" s="4">
+      <c r="M51" s="4">
         <v>3</v>
       </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="4">
         <v>1200</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="19">
         <v>2200</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="22">
         <v>0.78500000000000003</v>
       </c>
       <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
+        <f t="shared" si="0"/>
+        <v>44.625</v>
+      </c>
+      <c r="G52" s="19">
+        <v>0</v>
+      </c>
+      <c r="H52" s="19">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="4">
         <v>0.6</v>
       </c>
-      <c r="I52" s="4">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>0</v>
-      </c>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="4">
+        <v>0</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0</v>
+      </c>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="4">
         <v>1230</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="19">
         <v>2230</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G53" s="19">
         <v>-0.17</v>
       </c>
-      <c r="G53" s="4">
-        <v>0</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="H53" s="19">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.25</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
         <v>0.95</v>
       </c>
-      <c r="I53" s="4">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
         <v>3</v>
       </c>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="4">
         <v>1231</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="19">
         <v>2230</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F54" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G54" s="19">
         <v>0.17</v>
       </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="H54" s="19">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
         <v>0.95</v>
       </c>
-      <c r="I54" s="4">
+      <c r="L54" s="4">
         <v>0.5</v>
       </c>
-      <c r="J54" s="4">
+      <c r="M54" s="4">
         <v>3</v>
       </c>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="4">
         <v>1232</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="19">
         <v>2230</v>
       </c>
       <c r="D55" s="4">
         <v>137</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F55" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G55" s="19">
         <v>0.1</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="19">
         <v>-0.1</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+      <c r="K55" s="4">
         <v>0.95</v>
       </c>
-      <c r="I55" s="4">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
+      <c r="L55" s="4">
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
         <v>3</v>
       </c>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="4">
         <v>1233</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="19">
         <v>2230</v>
       </c>
       <c r="D56" s="4">
         <v>137</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F56" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G56" s="19">
         <v>-0.15</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I56" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.75</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="K56" s="4">
         <v>0.95</v>
       </c>
-      <c r="I56" s="4">
+      <c r="L56" s="4">
         <v>0.5</v>
       </c>
-      <c r="J56" s="4">
+      <c r="M56" s="4">
         <v>3</v>
       </c>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="4">
         <v>1234</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="19">
         <v>2230</v>
       </c>
       <c r="D57" s="4">
         <v>-137</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F57" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G57" s="19">
         <v>0.15</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H57" s="4">
+      <c r="I57" s="4">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="K57" s="4">
         <v>0.95</v>
       </c>
-      <c r="I57" s="4">
-        <v>0</v>
-      </c>
-      <c r="J57" s="4">
+      <c r="L57" s="4">
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
         <v>3</v>
       </c>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="4">
         <v>1235</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="19">
         <v>2230</v>
       </c>
       <c r="D58" s="4">
         <v>-137</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="F58" s="4">
+        <f t="shared" si="0"/>
+        <v>40.450000000000003</v>
+      </c>
+      <c r="G58" s="19">
         <v>-0.1</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="19">
         <v>-0.1</v>
       </c>
-      <c r="H58" s="4">
+      <c r="I58" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+      <c r="K58" s="4">
         <v>0.95</v>
       </c>
-      <c r="I58" s="4">
+      <c r="L58" s="4">
         <v>0.5</v>
       </c>
-      <c r="J58" s="4">
+      <c r="M58" s="4">
         <v>3</v>
       </c>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="4">
         <v>1240</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="19">
         <v>2240</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="22">
         <v>0.76800000000000002</v>
       </c>
       <c r="F59" s="4">
-        <v>0</v>
-      </c>
-      <c r="G59" s="4">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
+        <f t="shared" si="0"/>
+        <v>44.2</v>
+      </c>
+      <c r="G59" s="19">
+        <v>0</v>
+      </c>
+      <c r="H59" s="19">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
         <v>0.97</v>
       </c>
-      <c r="I59" s="4">
-        <v>0</v>
-      </c>
-      <c r="J59" s="4">
+      <c r="L59" s="4">
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
         <v>3</v>
       </c>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="4">
         <v>1250</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="19">
         <v>2250</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="22">
         <v>0.71799999999999997</v>
       </c>
       <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
+        <f t="shared" si="0"/>
+        <v>42.95</v>
+      </c>
+      <c r="G60" s="19">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
         <v>0.72</v>
       </c>
-      <c r="I60" s="4">
-        <v>0</v>
-      </c>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="4">
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="4">
         <v>1251</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="19">
         <v>2250</v>
       </c>
       <c r="D61" s="4">
         <v>130</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="22">
         <v>0.5</v>
       </c>
       <c r="F61" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G61" s="19">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G61" s="4">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="H61" s="19">
+        <v>0</v>
+      </c>
+      <c r="I61" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.7500000000000002</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
         <v>0.72</v>
       </c>
-      <c r="I61" s="4">
+      <c r="L61" s="4">
         <v>0.3</v>
       </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="M61" s="4">
+        <v>0</v>
+      </c>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="4">
         <v>1252</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="19">
         <v>2250</v>
       </c>
       <c r="D62" s="4">
         <v>-130</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="22">
         <v>0.5</v>
       </c>
       <c r="F62" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G62" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="H62" s="19">
+        <v>0</v>
+      </c>
+      <c r="I62" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
         <v>0.72</v>
       </c>
-      <c r="I62" s="4">
+      <c r="L62" s="4">
         <v>0.5</v>
       </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="M62" s="4">
+        <v>0</v>
+      </c>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="4">
         <v>1260</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="19">
         <v>2260</v>
       </c>
       <c r="D63" s="4">
         <v>0</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="22">
         <v>0.71799999999999997</v>
       </c>
       <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
+        <f t="shared" si="0"/>
+        <v>42.95</v>
+      </c>
+      <c r="G63" s="19">
+        <v>0</v>
+      </c>
+      <c r="H63" s="19">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
         <v>0.62</v>
       </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="4">
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="4">
         <v>1261</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="19">
         <v>2261</v>
       </c>
       <c r="D64" s="4">
         <v>-180</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="22">
         <v>0.5</v>
       </c>
       <c r="F64" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G64" s="19">
         <v>-0.2</v>
       </c>
-      <c r="G64" s="4">
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="H64" s="19">
+        <v>0</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="4">
         <v>1.64</v>
       </c>
-      <c r="I64" s="4">
+      <c r="L64" s="4">
         <v>0.3</v>
       </c>
-      <c r="J64" s="4">
-        <v>0</v>
-      </c>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="M64" s="4">
+        <v>0</v>
+      </c>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="4">
         <v>1262</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="19">
         <v>2261</v>
       </c>
       <c r="D65" s="4">
         <v>180</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="22">
         <v>0.5</v>
       </c>
       <c r="F65" s="4">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="G65" s="19">
         <v>0.2</v>
       </c>
-      <c r="G65" s="4">
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="H65" s="19">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="4">
         <v>1.64</v>
       </c>
-      <c r="I65" s="4">
+      <c r="L65" s="4">
         <v>0.5</v>
       </c>
-      <c r="J65" s="4">
-        <v>0</v>
-      </c>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="4">
         <v>1270</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="19">
         <v>2270</v>
       </c>
       <c r="D66" s="4">
         <v>9</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="22">
         <v>0.76800000000000002</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="4">
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
+        <f t="shared" si="0"/>
+        <v>44.2</v>
+      </c>
+      <c r="G66" s="19">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="4">
         <v>0.62</v>
       </c>
-      <c r="I66" s="4">
-        <v>0</v>
-      </c>
-      <c r="J66" s="4">
-        <v>0</v>
-      </c>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="4">
+        <v>0</v>
+      </c>
+      <c r="M66" s="4">
+        <v>0</v>
+      </c>
+      <c r="N66" s="4"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="4">
         <v>1280</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="19">
         <v>2280</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F67" s="4">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
+      <c r="G67" s="19">
         <v>-0.13</v>
       </c>
-      <c r="G67" s="4">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="H67" s="19">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" si="1"/>
+        <v>-3.25</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K67" s="4">
         <v>0.97</v>
       </c>
-      <c r="I67" s="4">
+      <c r="L67" s="4">
         <v>0.5</v>
       </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="M67" s="4">
+        <v>0</v>
+      </c>
+      <c r="N67" s="4"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="4">
         <v>1281</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="19">
         <v>2280</v>
       </c>
       <c r="D68" s="4">
         <v>0</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F68" s="4">
+        <f t="shared" ref="F68:F79" si="3">E68*25+25</f>
+        <v>38.75</v>
+      </c>
+      <c r="G68" s="19">
         <v>0.13</v>
       </c>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="H68" s="19">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" ref="I68:I79" si="4">G68*25</f>
+        <v>3.25</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" ref="J68:J79" si="5">H68*25</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="4">
         <v>0.97</v>
       </c>
-      <c r="I68" s="4">
+      <c r="L68" s="4">
         <v>0.5</v>
       </c>
-      <c r="J68" s="4">
-        <v>0</v>
-      </c>
-      <c r="K68" s="4"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="M68" s="4">
+        <v>0</v>
+      </c>
+      <c r="N68" s="4"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="4">
         <v>1282</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="19">
         <v>2280</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F69" s="4">
+        <f t="shared" si="3"/>
+        <v>38.75</v>
+      </c>
+      <c r="G69" s="19">
         <v>0.2</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="19">
         <v>-0.12</v>
       </c>
-      <c r="H69" s="4">
+      <c r="I69" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="K69" s="4">
         <v>0.97</v>
       </c>
-      <c r="I69" s="4">
-        <v>0</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
+        <v>0</v>
+      </c>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="4">
         <v>1283</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="19">
         <v>2280</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F70" s="4">
+        <f t="shared" si="3"/>
+        <v>38.75</v>
+      </c>
+      <c r="G70" s="19">
         <v>-0.2</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="19">
         <v>-0.12</v>
       </c>
-      <c r="H70" s="4">
+      <c r="I70" s="4">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="K70" s="4">
         <v>0.97</v>
       </c>
-      <c r="I70" s="4">
-        <v>0</v>
-      </c>
-      <c r="J70" s="4">
-        <v>0</v>
-      </c>
-      <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4">
+        <v>0</v>
+      </c>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="4">
         <v>1290</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="19">
         <v>2290</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="22">
         <v>0.74</v>
       </c>
       <c r="F71" s="4">
+        <f t="shared" si="3"/>
+        <v>43.5</v>
+      </c>
+      <c r="G71" s="19">
         <v>-0.19</v>
       </c>
-      <c r="G71" s="4">
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="H71" s="19">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="4"/>
+        <v>-4.75</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I71" s="4">
+      <c r="L71" s="4">
         <v>0.5</v>
       </c>
-      <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="M71" s="4">
+        <v>0</v>
+      </c>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="4">
         <v>1291</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="19">
         <v>2290</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="22">
         <v>0.74</v>
       </c>
       <c r="F72" s="4">
+        <f t="shared" si="3"/>
+        <v>43.5</v>
+      </c>
+      <c r="G72" s="19">
         <v>0.19</v>
       </c>
-      <c r="G72" s="4">
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
+      <c r="H72" s="19">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I72" s="4">
+      <c r="L72" s="4">
         <v>0.5</v>
       </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="M72" s="4">
+        <v>0</v>
+      </c>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="4">
         <v>1292</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="19">
         <v>2290</v>
       </c>
       <c r="D73" s="4">
         <v>0</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F73" s="4">
+        <f t="shared" si="3"/>
+        <v>38.75</v>
+      </c>
+      <c r="G73" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G73" s="4">
+      <c r="H73" s="19">
         <v>-0.12</v>
       </c>
-      <c r="H73" s="4">
+      <c r="I73" s="4">
+        <f t="shared" si="4"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="K73" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I73" s="4">
-        <v>0</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="4">
+        <v>0</v>
+      </c>
+      <c r="M73" s="4">
+        <v>0</v>
+      </c>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="4">
         <v>1293</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="19">
         <v>2290</v>
       </c>
       <c r="D74" s="4">
         <v>0</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="F74" s="4">
+        <f t="shared" si="3"/>
+        <v>38.75</v>
+      </c>
+      <c r="G74" s="19">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="19">
         <v>-0.12</v>
       </c>
-      <c r="H74" s="4">
+      <c r="I74" s="4">
+        <f t="shared" si="4"/>
+        <v>-7.0000000000000009</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="K74" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I74" s="4">
-        <v>0</v>
-      </c>
-      <c r="J74" s="4">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+      <c r="M74" s="4">
+        <v>0</v>
+      </c>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="4">
         <v>1300</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="19">
         <v>2301</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="22">
         <v>0.71799999999999997</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4">
-        <v>0</v>
-      </c>
-      <c r="H75" s="4">
+        <f t="shared" si="3"/>
+        <v>42.95</v>
+      </c>
+      <c r="G75" s="19">
+        <v>0</v>
+      </c>
+      <c r="H75" s="19">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
         <v>1</v>
       </c>
-      <c r="I75" s="4">
-        <v>0</v>
-      </c>
-      <c r="J75" s="4">
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+      <c r="M75" s="4">
         <v>3</v>
       </c>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="4">
         <v>1301</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="19">
         <v>2300</v>
       </c>
       <c r="D76" s="4">
         <v>156</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="22">
         <v>0.5</v>
       </c>
       <c r="F76" s="4">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="G76" s="19">
         <v>-0.1</v>
       </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="4">
+      <c r="H76" s="19">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I76" s="4">
+      <c r="L76" s="4">
         <v>0.5</v>
       </c>
-      <c r="J76" s="4">
-        <v>0</v>
-      </c>
-      <c r="K76" s="4"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="M76" s="4">
+        <v>0</v>
+      </c>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="4">
         <v>1302</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="19">
         <v>2300</v>
       </c>
       <c r="D77" s="4">
         <v>-156</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="22">
         <v>0.5</v>
       </c>
       <c r="F77" s="4">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="G77" s="19">
         <v>0.1</v>
       </c>
-      <c r="G77" s="4">
-        <v>0</v>
-      </c>
-      <c r="H77" s="4">
+      <c r="H77" s="19">
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I77" s="4">
+      <c r="L77" s="4">
         <v>0.5</v>
       </c>
-      <c r="J77" s="4">
-        <v>0</v>
-      </c>
-      <c r="K77" s="4"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="M77" s="4">
+        <v>0</v>
+      </c>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="4">
         <v>1303</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="19">
         <v>2300</v>
       </c>
       <c r="D78" s="4">
         <v>90</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="22">
         <v>0.5</v>
       </c>
       <c r="F78" s="4">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="G78" s="19">
         <v>-0.1</v>
       </c>
-      <c r="G78" s="4">
-        <v>0</v>
-      </c>
-      <c r="H78" s="4">
+      <c r="H78" s="19">
+        <v>0</v>
+      </c>
+      <c r="I78" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J78" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I78" s="4">
+      <c r="L78" s="4">
         <v>0.3</v>
       </c>
-      <c r="J78" s="4">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="M78" s="4">
+        <v>0</v>
+      </c>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="4">
         <v>1304</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="19">
         <v>2300</v>
       </c>
       <c r="D79" s="4">
         <v>-90</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="22">
         <v>0.5</v>
       </c>
       <c r="F79" s="4">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="G79" s="19">
         <v>0.1</v>
       </c>
-      <c r="G79" s="4">
-        <v>0</v>
-      </c>
-      <c r="H79" s="4">
+      <c r="H79" s="19">
+        <v>0</v>
+      </c>
+      <c r="I79" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="J79" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I79" s="4">
+      <c r="L79" s="4">
         <v>0.3</v>
       </c>
-      <c r="J79" s="4">
-        <v>0</v>
-      </c>
-      <c r="K79" s="4"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="M79" s="4">
+        <v>0</v>
+      </c>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="22"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="22"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="22"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="19"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="19"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="C87" s="19"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="22"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="19"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="19"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="22"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="19"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="22"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="19"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="22"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="19"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="22"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="19"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="E93" s="22"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="19"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="E95" s="22"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="19"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="E96" s="22"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="19"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="E97" s="22"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="19"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="22"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="22"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="22"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="19"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="19"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="19"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="19"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="C109" s="19"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="19"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="19"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="19"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="19"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="E116" s="22"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
+      <c r="E118" s="22"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="19"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+      <c r="E119" s="22"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="22"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="19"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="19"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
+      <c r="E123" s="22"/>
       <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="19"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="19"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="E126" s="22"/>
       <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="C127" s="19"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
+      <c r="E127" s="22"/>
       <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="C128" s="19"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
+      <c r="E128" s="22"/>
       <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="C130" s="19"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="19"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="C132" s="19"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+      <c r="E132" s="22"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="19"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="E133" s="22"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="19"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
+      <c r="E134" s="22"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="C135" s="19"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="C136" s="19"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="C137" s="19"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="19"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="22"/>
       <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="C139" s="19"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="22"/>
       <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="19"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
+      <c r="E140" s="22"/>
       <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="C141" s="19"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
+      <c r="E141" s="22"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="C142" s="19"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="E142" s="22"/>
       <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="19"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="22"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="19"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="E144" s="22"/>
       <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="C145" s="19"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="E145" s="22"/>
       <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+      <c r="C146" s="19"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="E146" s="22"/>
       <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="19"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="E147" s="22"/>
       <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="19"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="22"/>
       <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="19"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
+      <c r="E149" s="22"/>
       <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="19"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
+      <c r="E150" s="22"/>
       <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="19"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
+      <c r="E151" s="22"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="19"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
+      <c r="E152" s="22"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="19"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="E153" s="22"/>
       <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="19"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="22"/>
       <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="19"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="E155" s="22"/>
       <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
+      <c r="E156" s="22"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="19"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
+      <c r="E157" s="22"/>
       <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="4"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="C158" s="19"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="C159" s="19"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="E159" s="22"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="C160" s="19"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
+      <c r="E160" s="22"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="C161" s="19"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
+      <c r="E161" s="22"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+      <c r="C162" s="19"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
+      <c r="E162" s="22"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="C163" s="19"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="C164" s="19"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
+      <c r="E164" s="22"/>
       <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="C165" s="19"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
+      <c r="E165" s="22"/>
       <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="C166" s="19"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
+      <c r="E166" s="22"/>
       <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="19"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="C168" s="19"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
+      <c r="E168" s="22"/>
       <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="C169" s="19"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="4"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="C170" s="19"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="C171" s="19"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="C172" s="19"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="C173" s="19"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="C174" s="19"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="C175" s="19"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
+      <c r="E175" s="22"/>
       <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="19"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="C177" s="19"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="C178" s="19"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="4"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="C179" s="19"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="4"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="C180" s="19"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="4"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="C181" s="19"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="C182" s="19"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
+      <c r="E182" s="22"/>
       <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="C183" s="19"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="C184" s="19"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="4"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="C185" s="19"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="C186" s="19"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
+      <c r="E186" s="22"/>
       <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="C187" s="19"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
+      <c r="E187" s="22"/>
       <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="4"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="C188" s="19"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
+      <c r="E188" s="22"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="4"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="C189" s="19"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="4"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="C190" s="19"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
+      <c r="E190" s="22"/>
       <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="4"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="C191" s="19"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="4"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="C192" s="19"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
+      <c r="E192" s="22"/>
       <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="4"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="C193" s="19"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
+      <c r="E193" s="22"/>
       <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="4"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="C194" s="19"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
+      <c r="E194" s="22"/>
       <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="4"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="C195" s="19"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
+      <c r="E195" s="22"/>
       <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
+      <c r="C196" s="19"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
+      <c r="E196" s="22"/>
       <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19"/>
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="C197" s="19"/>
       <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
+      <c r="E197" s="22"/>
       <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-      <c r="H197" s="4"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="19"/>
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="C198" s="19"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
+      <c r="E198" s="22"/>
       <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-      <c r="H198" s="4"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="C199" s="19"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
+      <c r="E199" s="22"/>
       <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="C200" s="19"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
+      <c r="E200" s="22"/>
       <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-      <c r="H200" s="4"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/cfg/config.xlsx
+++ b/cfg/config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15540" tabRatio="735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="configBullets" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="configPropAdd" sheetId="9" r:id="rId5"/>
     <sheet name="configLevelUp" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="164">
-  <si>
-    <t>别名</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
   <si>
     <t>勾边宽</t>
   </si>
@@ -83,9 +80,6 @@
     <t>自旋速度</t>
   </si>
   <si>
-    <t>alias</t>
-  </si>
-  <si>
     <t>view.edge.w</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>velocity.rv</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>0x555555</t>
   </si>
   <si>
@@ -170,19 +161,10 @@
     <t>view.color</t>
   </si>
   <si>
-    <t>triangle</t>
-  </si>
-  <si>
     <t>0xfc7676</t>
   </si>
   <si>
-    <t>quad</t>
-  </si>
-  <si>
     <t>0xffe869</t>
-  </si>
-  <si>
-    <t>pentagon</t>
   </si>
   <si>
     <t>0x768dfc</t>
@@ -569,31 +551,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞弹射速度</t>
+    <t>lifeSeconds</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞弹射抵抗速度</t>
+    <t>velocity.springBase</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>velocity.spring</t>
+    <t>velocity.springAdd</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>velocity.springResist</t>
+    <t>碰撞弹射基础速度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>lifeSeconds</t>
+    <t>碰撞弹射加成速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,6 +862,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="15">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -875,14 +870,13 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1173,189 +1167,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="7.5" customWidth="1"/>
     <col min="10" max="11" width="8.5" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" customWidth="1"/>
-    <col min="14" max="15" width="16.1640625" customWidth="1"/>
-    <col min="16" max="17" width="17.1640625" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="6" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
+      <c r="A3" s="4">
+        <v>2010</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4">
         <v>2.5</v>
@@ -1400,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="U3" s="4">
-        <v>875</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
-        <v>875</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1419,175 +1413,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="7.5" customWidth="1"/>
     <col min="9" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" customWidth="1"/>
-    <col min="14" max="15" width="16.1640625" customWidth="1"/>
-    <col min="16" max="17" width="17.1640625" customWidth="1"/>
-    <col min="18" max="18" width="16.1640625" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="15" width="16.125" customWidth="1"/>
+    <col min="16" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="16.125" customWidth="1"/>
+    <col min="19" max="19" width="16.375" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="6" customFormat="1">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
+      <c r="A3" s="4">
+        <v>301</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -1596,13 +1590,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E3" s="4">
         <v>2.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4">
         <v>100</v>
@@ -1647,15 +1641,15 @@
         <v>0.5</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V3" s="4">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="4" t="s">
-        <v>50</v>
+      <c r="A4" s="4">
+        <v>302</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -1664,13 +1658,13 @@
         <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4">
         <v>2.5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" s="4">
         <v>400</v>
@@ -1715,15 +1709,15 @@
         <v>0.5</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V4" s="4">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="4" t="s">
-        <v>52</v>
+      <c r="A5" s="4">
+        <v>303</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
@@ -1732,13 +1726,13 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4">
         <v>2.5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4">
         <v>1000</v>
@@ -1783,10 +1777,10 @@
         <v>0.5</v>
       </c>
       <c r="U5" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="V5" s="4">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1801,226 +1795,226 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="21" width="11.1640625" customWidth="1"/>
-    <col min="22" max="22" width="17.1640625" customWidth="1"/>
-    <col min="23" max="24" width="16.1640625" customWidth="1"/>
-    <col min="25" max="26" width="17.1640625" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" customWidth="1"/>
-    <col min="28" max="28" width="17.1640625" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="13" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="17.125" customWidth="1"/>
+    <col min="23" max="24" width="16.125" customWidth="1"/>
+    <col min="25" max="26" width="17.125" customWidth="1"/>
+    <col min="27" max="27" width="16.125" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="11.625" customWidth="1"/>
+    <col min="30" max="30" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="AD1" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="11" t="s">
+      <c r="X2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="6" customFormat="1">
@@ -2046,7 +2040,7 @@
         <v>99999</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I3" s="4">
         <v>5</v>
@@ -2099,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="AD3" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE3" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -2128,7 +2122,7 @@
         <v>99999</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I4" s="4">
         <v>15</v>
@@ -2179,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="AD4" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE4" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -2208,7 +2202,7 @@
         <v>99999</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I5" s="4">
         <v>15</v>
@@ -2259,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AD5" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE5" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -2288,7 +2282,7 @@
         <v>99999</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I6" s="4">
         <v>15</v>
@@ -2339,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="AD6" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE6" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -2368,7 +2362,7 @@
         <v>99999</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I7" s="4">
         <v>15</v>
@@ -2415,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="AD7" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE7" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -2444,7 +2438,7 @@
         <v>99999</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I8" s="4">
         <v>30</v>
@@ -2491,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="AD8" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE8" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -2520,7 +2514,7 @@
         <v>99999</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I9" s="4">
         <v>30</v>
@@ -2569,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="AD9" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE9" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -2598,7 +2592,7 @@
         <v>99999</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I10" s="4">
         <v>30</v>
@@ -2651,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="AD10" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE10" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -2680,7 +2674,7 @@
         <v>99999</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I11" s="4">
         <v>30</v>
@@ -2733,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AD11" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE11" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -2762,7 +2756,7 @@
         <v>99999</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I12" s="4">
         <v>30</v>
@@ -2815,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="AD12" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE12" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -2844,7 +2838,7 @@
         <v>99999</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I13" s="4">
         <v>30</v>
@@ -2897,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="AD13" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE13" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2926,7 +2920,7 @@
         <v>99999</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I14" s="4">
         <v>30</v>
@@ -2973,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="AD14" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE14" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -3002,7 +2996,7 @@
         <v>99999</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I15" s="4">
         <v>30</v>
@@ -3049,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="AD15" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE15" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -3078,7 +3072,7 @@
         <v>99999</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3121,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="AD16" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE16" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -3150,7 +3144,7 @@
         <v>99999</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3195,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="AD17" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE17" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -3224,7 +3218,7 @@
         <v>99999</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3275,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="AD18" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE18" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -3304,7 +3298,7 @@
         <v>99999</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3361,10 +3355,10 @@
         <v>0</v>
       </c>
       <c r="AD19" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE19" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -3390,7 +3384,7 @@
         <v>99999</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3437,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="AD20" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE20" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -3466,7 +3460,7 @@
         <v>99999</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3517,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="AD21" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE21" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -3546,7 +3540,7 @@
         <v>99999</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3589,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="AD22" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE22" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -3618,7 +3612,7 @@
         <v>99999</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3659,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="AD23" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE23" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -3688,7 +3682,7 @@
         <v>99999</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3729,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="AD24" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE24" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -3758,7 +3752,7 @@
         <v>99999</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3811,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="AD25" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE25" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -3840,7 +3834,7 @@
         <v>99999</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I26" s="4">
         <v>30</v>
@@ -3891,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="AD26" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE26" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3920,7 +3914,7 @@
         <v>99999</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -3967,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="AD27" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE27" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3996,7 +3990,7 @@
         <v>99999</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -4043,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="AD28" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE28" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -4072,7 +4066,7 @@
         <v>99999</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -4115,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE29" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -4144,7 +4138,7 @@
         <v>99999</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -4193,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="AD30" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE30" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -4222,7 +4216,7 @@
         <v>99999</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -4271,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="AD31" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE31" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -4300,7 +4294,7 @@
         <v>99999</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4351,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="4">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE32" s="4">
-        <v>750</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4370,112 +4364,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N200"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F79"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="11.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="8" width="9.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="20"/>
+    <col min="5" max="5" width="11.625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="8" width="9.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="9" customFormat="1">
       <c r="A2" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1010</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
+      <c r="B3" s="4">
+        <v>2010</v>
       </c>
       <c r="C3" s="19">
         <v>2010</v>
@@ -4521,8 +4515,8 @@
       <c r="A4" s="4">
         <v>1020</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
+      <c r="B4" s="4">
+        <v>2010</v>
       </c>
       <c r="C4" s="19">
         <v>2020</v>
@@ -4566,8 +4560,8 @@
       <c r="A5" s="4">
         <v>1030</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
+      <c r="B5" s="4">
+        <v>2010</v>
       </c>
       <c r="C5" s="19">
         <v>2030</v>
@@ -4611,8 +4605,8 @@
       <c r="A6" s="4">
         <v>1031</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
+      <c r="B6" s="4">
+        <v>2010</v>
       </c>
       <c r="C6" s="19">
         <v>2030</v>
@@ -4656,8 +4650,8 @@
       <c r="A7" s="4">
         <v>1040</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
+      <c r="B7" s="4">
+        <v>2010</v>
       </c>
       <c r="C7" s="19">
         <v>2040</v>
@@ -4701,8 +4695,8 @@
       <c r="A8" s="4">
         <v>1041</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
+      <c r="B8" s="4">
+        <v>2010</v>
       </c>
       <c r="C8" s="19">
         <v>2040</v>
@@ -4746,8 +4740,8 @@
       <c r="A9" s="4">
         <v>1050</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>37</v>
+      <c r="B9" s="4">
+        <v>2010</v>
       </c>
       <c r="C9" s="19">
         <v>2050</v>
@@ -4791,8 +4785,8 @@
       <c r="A10" s="4">
         <v>1060</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>37</v>
+      <c r="B10" s="4">
+        <v>2010</v>
       </c>
       <c r="C10" s="19">
         <v>2060</v>
@@ -4836,8 +4830,8 @@
       <c r="A11" s="4">
         <v>1070</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
+      <c r="B11" s="4">
+        <v>2010</v>
       </c>
       <c r="C11" s="19">
         <v>2070</v>
@@ -4881,8 +4875,8 @@
       <c r="A12" s="4">
         <v>1071</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
+      <c r="B12" s="4">
+        <v>2010</v>
       </c>
       <c r="C12" s="19">
         <v>2071</v>
@@ -4926,8 +4920,8 @@
       <c r="A13" s="4">
         <v>1080</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
+      <c r="B13" s="4">
+        <v>2010</v>
       </c>
       <c r="C13" s="19">
         <v>2081</v>
@@ -4971,8 +4965,8 @@
       <c r="A14" s="4">
         <v>1081</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
+      <c r="B14" s="4">
+        <v>2010</v>
       </c>
       <c r="C14" s="19">
         <v>2080</v>
@@ -5016,8 +5010,8 @@
       <c r="A15" s="4">
         <v>1082</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
+      <c r="B15" s="4">
+        <v>2010</v>
       </c>
       <c r="C15" s="19">
         <v>2080</v>
@@ -5061,8 +5055,8 @@
       <c r="A16" s="4">
         <v>1090</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
+      <c r="B16" s="4">
+        <v>2010</v>
       </c>
       <c r="C16" s="19">
         <v>2090</v>
@@ -5106,8 +5100,8 @@
       <c r="A17" s="4">
         <v>1091</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
+      <c r="B17" s="4">
+        <v>2010</v>
       </c>
       <c r="C17" s="19">
         <v>2090</v>
@@ -5151,8 +5145,8 @@
       <c r="A18" s="4">
         <v>1092</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>37</v>
+      <c r="B18" s="4">
+        <v>2010</v>
       </c>
       <c r="C18" s="19">
         <v>2090</v>
@@ -5196,8 +5190,8 @@
       <c r="A19" s="4">
         <v>1093</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
+      <c r="B19" s="4">
+        <v>2010</v>
       </c>
       <c r="C19" s="19">
         <v>2090</v>
@@ -5241,8 +5235,8 @@
       <c r="A20" s="4">
         <v>1100</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
+      <c r="B20" s="4">
+        <v>2010</v>
       </c>
       <c r="C20" s="19">
         <v>2100</v>
@@ -5286,8 +5280,8 @@
       <c r="A21" s="4">
         <v>1101</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
+      <c r="B21" s="4">
+        <v>2010</v>
       </c>
       <c r="C21" s="19">
         <v>2100</v>
@@ -5331,8 +5325,8 @@
       <c r="A22" s="4">
         <v>1102</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
+      <c r="B22" s="4">
+        <v>2010</v>
       </c>
       <c r="C22" s="19">
         <v>2100</v>
@@ -5376,8 +5370,8 @@
       <c r="A23" s="4">
         <v>1103</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>37</v>
+      <c r="B23" s="4">
+        <v>2010</v>
       </c>
       <c r="C23" s="19">
         <v>2100</v>
@@ -5421,8 +5415,8 @@
       <c r="A24" s="4">
         <v>1110</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>37</v>
+      <c r="B24" s="4">
+        <v>2010</v>
       </c>
       <c r="C24" s="19">
         <v>2110</v>
@@ -5466,8 +5460,8 @@
       <c r="A25" s="4">
         <v>1111</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>37</v>
+      <c r="B25" s="4">
+        <v>2010</v>
       </c>
       <c r="C25" s="19">
         <v>2110</v>
@@ -5511,8 +5505,8 @@
       <c r="A26" s="4">
         <v>1112</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>37</v>
+      <c r="B26" s="4">
+        <v>2010</v>
       </c>
       <c r="C26" s="19">
         <v>2110</v>
@@ -5556,8 +5550,8 @@
       <c r="A27" s="4">
         <v>1120</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>37</v>
+      <c r="B27" s="4">
+        <v>2010</v>
       </c>
       <c r="C27" s="19">
         <v>2120</v>
@@ -5601,8 +5595,8 @@
       <c r="A28" s="4">
         <v>1140</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>37</v>
+      <c r="B28" s="4">
+        <v>2010</v>
       </c>
       <c r="C28" s="19">
         <v>2140</v>
@@ -5646,8 +5640,8 @@
       <c r="A29" s="4">
         <v>1150</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>37</v>
+      <c r="B29" s="4">
+        <v>2010</v>
       </c>
       <c r="C29" s="19">
         <v>2150</v>
@@ -5691,8 +5685,8 @@
       <c r="A30" s="4">
         <v>1151</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>37</v>
+      <c r="B30" s="4">
+        <v>2010</v>
       </c>
       <c r="C30" s="19">
         <v>2151</v>
@@ -5736,8 +5730,8 @@
       <c r="A31" s="4">
         <v>1160</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>37</v>
+      <c r="B31" s="4">
+        <v>2010</v>
       </c>
       <c r="C31" s="19">
         <v>2161</v>
@@ -5781,8 +5775,8 @@
       <c r="A32" s="4">
         <v>1161</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>37</v>
+      <c r="B32" s="4">
+        <v>2010</v>
       </c>
       <c r="C32" s="19">
         <v>2160</v>
@@ -5826,8 +5820,8 @@
       <c r="A33" s="4">
         <v>1162</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
+      <c r="B33" s="4">
+        <v>2010</v>
       </c>
       <c r="C33" s="19">
         <v>2160</v>
@@ -5871,8 +5865,8 @@
       <c r="A34" s="4">
         <v>1163</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>37</v>
+      <c r="B34" s="4">
+        <v>2010</v>
       </c>
       <c r="C34" s="19">
         <v>2160</v>
@@ -5916,8 +5910,8 @@
       <c r="A35" s="4">
         <v>1164</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>37</v>
+      <c r="B35" s="4">
+        <v>2010</v>
       </c>
       <c r="C35" s="19">
         <v>2160</v>
@@ -5961,8 +5955,8 @@
       <c r="A36" s="4">
         <v>1170</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>37</v>
+      <c r="B36" s="4">
+        <v>2010</v>
       </c>
       <c r="C36" s="19">
         <v>2170</v>
@@ -6006,8 +6000,8 @@
       <c r="A37" s="4">
         <v>1171</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>37</v>
+      <c r="B37" s="4">
+        <v>2010</v>
       </c>
       <c r="C37" s="19">
         <v>2170</v>
@@ -6051,8 +6045,8 @@
       <c r="A38" s="4">
         <v>1172</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>37</v>
+      <c r="B38" s="4">
+        <v>2010</v>
       </c>
       <c r="C38" s="19">
         <v>2170</v>
@@ -6096,8 +6090,8 @@
       <c r="A39" s="4">
         <v>1173</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>37</v>
+      <c r="B39" s="4">
+        <v>2010</v>
       </c>
       <c r="C39" s="19">
         <v>2170</v>
@@ -6141,8 +6135,8 @@
       <c r="A40" s="4">
         <v>1174</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>37</v>
+      <c r="B40" s="4">
+        <v>2010</v>
       </c>
       <c r="C40" s="19">
         <v>2170</v>
@@ -6186,8 +6180,8 @@
       <c r="A41" s="4">
         <v>1175</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>37</v>
+      <c r="B41" s="4">
+        <v>2010</v>
       </c>
       <c r="C41" s="19">
         <v>2170</v>
@@ -6231,8 +6225,8 @@
       <c r="A42" s="4">
         <v>1176</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>37</v>
+      <c r="B42" s="4">
+        <v>2010</v>
       </c>
       <c r="C42" s="19">
         <v>2170</v>
@@ -6276,8 +6270,8 @@
       <c r="A43" s="4">
         <v>1177</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>37</v>
+      <c r="B43" s="4">
+        <v>2010</v>
       </c>
       <c r="C43" s="19">
         <v>2170</v>
@@ -6321,8 +6315,8 @@
       <c r="A44" s="4">
         <v>1180</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>37</v>
+      <c r="B44" s="4">
+        <v>2010</v>
       </c>
       <c r="C44" s="19">
         <v>2180</v>
@@ -6366,8 +6360,8 @@
       <c r="A45" s="4">
         <v>1181</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>37</v>
+      <c r="B45" s="4">
+        <v>2010</v>
       </c>
       <c r="C45" s="19">
         <v>2180</v>
@@ -6411,8 +6405,8 @@
       <c r="A46" s="4">
         <v>1182</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>37</v>
+      <c r="B46" s="4">
+        <v>2010</v>
       </c>
       <c r="C46" s="19">
         <v>2180</v>
@@ -6456,8 +6450,8 @@
       <c r="A47" s="4">
         <v>1190</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>37</v>
+      <c r="B47" s="4">
+        <v>2010</v>
       </c>
       <c r="C47" s="19">
         <v>2190</v>
@@ -6501,8 +6495,8 @@
       <c r="A48" s="4">
         <v>1191</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>37</v>
+      <c r="B48" s="4">
+        <v>2010</v>
       </c>
       <c r="C48" s="19">
         <v>2190</v>
@@ -6546,8 +6540,8 @@
       <c r="A49" s="4">
         <v>1192</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>37</v>
+      <c r="B49" s="4">
+        <v>2010</v>
       </c>
       <c r="C49" s="19">
         <v>2190</v>
@@ -6591,8 +6585,8 @@
       <c r="A50" s="4">
         <v>1193</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>37</v>
+      <c r="B50" s="4">
+        <v>2010</v>
       </c>
       <c r="C50" s="19">
         <v>2190</v>
@@ -6636,8 +6630,8 @@
       <c r="A51" s="4">
         <v>1194</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>37</v>
+      <c r="B51" s="4">
+        <v>2010</v>
       </c>
       <c r="C51" s="19">
         <v>2190</v>
@@ -6681,8 +6675,8 @@
       <c r="A52" s="4">
         <v>1200</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>37</v>
+      <c r="B52" s="4">
+        <v>2010</v>
       </c>
       <c r="C52" s="19">
         <v>2200</v>
@@ -6726,8 +6720,8 @@
       <c r="A53" s="4">
         <v>1230</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>37</v>
+      <c r="B53" s="4">
+        <v>2010</v>
       </c>
       <c r="C53" s="19">
         <v>2230</v>
@@ -6771,8 +6765,8 @@
       <c r="A54" s="4">
         <v>1231</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>37</v>
+      <c r="B54" s="4">
+        <v>2010</v>
       </c>
       <c r="C54" s="19">
         <v>2230</v>
@@ -6816,8 +6810,8 @@
       <c r="A55" s="4">
         <v>1232</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>37</v>
+      <c r="B55" s="4">
+        <v>2010</v>
       </c>
       <c r="C55" s="19">
         <v>2230</v>
@@ -6861,8 +6855,8 @@
       <c r="A56" s="4">
         <v>1233</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>37</v>
+      <c r="B56" s="4">
+        <v>2010</v>
       </c>
       <c r="C56" s="19">
         <v>2230</v>
@@ -6906,8 +6900,8 @@
       <c r="A57" s="4">
         <v>1234</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>37</v>
+      <c r="B57" s="4">
+        <v>2010</v>
       </c>
       <c r="C57" s="19">
         <v>2230</v>
@@ -6951,8 +6945,8 @@
       <c r="A58" s="4">
         <v>1235</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>37</v>
+      <c r="B58" s="4">
+        <v>2010</v>
       </c>
       <c r="C58" s="19">
         <v>2230</v>
@@ -6996,8 +6990,8 @@
       <c r="A59" s="4">
         <v>1240</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>37</v>
+      <c r="B59" s="4">
+        <v>2010</v>
       </c>
       <c r="C59" s="19">
         <v>2240</v>
@@ -7041,8 +7035,8 @@
       <c r="A60" s="4">
         <v>1250</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>37</v>
+      <c r="B60" s="4">
+        <v>2010</v>
       </c>
       <c r="C60" s="19">
         <v>2250</v>
@@ -7086,8 +7080,8 @@
       <c r="A61" s="4">
         <v>1251</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>37</v>
+      <c r="B61" s="4">
+        <v>2010</v>
       </c>
       <c r="C61" s="19">
         <v>2250</v>
@@ -7131,8 +7125,8 @@
       <c r="A62" s="4">
         <v>1252</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>37</v>
+      <c r="B62" s="4">
+        <v>2010</v>
       </c>
       <c r="C62" s="19">
         <v>2250</v>
@@ -7176,8 +7170,8 @@
       <c r="A63" s="4">
         <v>1260</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>37</v>
+      <c r="B63" s="4">
+        <v>2010</v>
       </c>
       <c r="C63" s="19">
         <v>2260</v>
@@ -7221,8 +7215,8 @@
       <c r="A64" s="4">
         <v>1261</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>37</v>
+      <c r="B64" s="4">
+        <v>2010</v>
       </c>
       <c r="C64" s="19">
         <v>2261</v>
@@ -7266,8 +7260,8 @@
       <c r="A65" s="4">
         <v>1262</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>37</v>
+      <c r="B65" s="4">
+        <v>2010</v>
       </c>
       <c r="C65" s="19">
         <v>2261</v>
@@ -7311,8 +7305,8 @@
       <c r="A66" s="4">
         <v>1270</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>37</v>
+      <c r="B66" s="4">
+        <v>2010</v>
       </c>
       <c r="C66" s="19">
         <v>2270</v>
@@ -7356,8 +7350,8 @@
       <c r="A67" s="4">
         <v>1280</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>37</v>
+      <c r="B67" s="4">
+        <v>2010</v>
       </c>
       <c r="C67" s="19">
         <v>2280</v>
@@ -7401,8 +7395,8 @@
       <c r="A68" s="4">
         <v>1281</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>37</v>
+      <c r="B68" s="4">
+        <v>2010</v>
       </c>
       <c r="C68" s="19">
         <v>2280</v>
@@ -7446,8 +7440,8 @@
       <c r="A69" s="4">
         <v>1282</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>37</v>
+      <c r="B69" s="4">
+        <v>2010</v>
       </c>
       <c r="C69" s="19">
         <v>2280</v>
@@ -7491,8 +7485,8 @@
       <c r="A70" s="4">
         <v>1283</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>37</v>
+      <c r="B70" s="4">
+        <v>2010</v>
       </c>
       <c r="C70" s="19">
         <v>2280</v>
@@ -7536,8 +7530,8 @@
       <c r="A71" s="4">
         <v>1290</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>37</v>
+      <c r="B71" s="4">
+        <v>2010</v>
       </c>
       <c r="C71" s="19">
         <v>2290</v>
@@ -7581,8 +7575,8 @@
       <c r="A72" s="4">
         <v>1291</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>37</v>
+      <c r="B72" s="4">
+        <v>2010</v>
       </c>
       <c r="C72" s="19">
         <v>2290</v>
@@ -7626,8 +7620,8 @@
       <c r="A73" s="4">
         <v>1292</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>37</v>
+      <c r="B73" s="4">
+        <v>2010</v>
       </c>
       <c r="C73" s="19">
         <v>2290</v>
@@ -7671,8 +7665,8 @@
       <c r="A74" s="4">
         <v>1293</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>37</v>
+      <c r="B74" s="4">
+        <v>2010</v>
       </c>
       <c r="C74" s="19">
         <v>2290</v>
@@ -7716,8 +7710,8 @@
       <c r="A75" s="4">
         <v>1300</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>37</v>
+      <c r="B75" s="4">
+        <v>2010</v>
       </c>
       <c r="C75" s="19">
         <v>2301</v>
@@ -7761,8 +7755,8 @@
       <c r="A76" s="4">
         <v>1301</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>37</v>
+      <c r="B76" s="4">
+        <v>2010</v>
       </c>
       <c r="C76" s="19">
         <v>2300</v>
@@ -7806,8 +7800,8 @@
       <c r="A77" s="4">
         <v>1302</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>37</v>
+      <c r="B77" s="4">
+        <v>2010</v>
       </c>
       <c r="C77" s="19">
         <v>2300</v>
@@ -7851,8 +7845,8 @@
       <c r="A78" s="4">
         <v>1303</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>37</v>
+      <c r="B78" s="4">
+        <v>2010</v>
       </c>
       <c r="C78" s="19">
         <v>2300</v>
@@ -7896,8 +7890,8 @@
       <c r="A79" s="4">
         <v>1304</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>37</v>
+      <c r="B79" s="4">
+        <v>2010</v>
       </c>
       <c r="C79" s="19">
         <v>2300</v>
@@ -9886,65 +9880,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="3" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="3" width="10.125" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4">
         <v>0.4</v>
@@ -9964,7 +9958,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4">
         <v>0.2</v>
@@ -9984,7 +9978,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4">
         <v>0.3</v>
@@ -10004,7 +9998,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4">
         <v>7.0000000000000007E-2</v>
@@ -10024,7 +10018,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4">
         <v>0.1</v>
@@ -10044,7 +10038,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4">
         <v>0.2</v>
@@ -10064,7 +10058,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4">
         <v>0.15</v>
@@ -10084,7 +10078,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4">
         <v>0.05</v>
@@ -10115,38 +10109,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10200,9 +10194,6 @@
       <c r="B7">
         <v>70</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
@@ -10310,9 +10301,6 @@
       <c r="B17">
         <v>500</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
@@ -10474,9 +10462,6 @@
       </c>
       <c r="B32">
         <v>1800</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
